--- a/services/opengsync-app/static/resources/templates/library_prep/QUANTSEQ.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/QUANTSEQ.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cemmat-my.sharepoint.com/personal/hriegler_cemm_at/Documents/Documents/GitHub/limbless-app/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{FA84E37E-DC61-E841-823B-F8596B3D28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B302EE93-3DB0-4FAA-8657-C4A4B94C65A4}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{FA84E37E-DC61-E841-823B-F8596B3D28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BC5159-9E4F-4031-AB4B-C7FB4108A0D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
     <sheet name="Quantseq" sheetId="34" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
   <si>
     <t>RIN</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>Checklist 3’ mRNA-Seq V2 Library Pre Kit (Lexogen)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1705,6 +1708,234 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,238 +1945,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2371,13 +2374,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2436,13 +2439,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>101</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>103</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2505,13 +2508,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2578,7 +2581,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2639,13 +2642,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>260350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2704,15 +2707,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2773,13 +2776,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2840,13 +2843,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2905,15 +2908,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>298450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2974,13 +2977,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3041,13 +3044,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3108,13 +3111,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3175,13 +3178,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3242,13 +3245,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3309,13 +3312,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3376,13 +3379,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3443,13 +3446,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3510,13 +3513,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3577,13 +3580,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3644,13 +3647,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3711,13 +3714,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3839,13 +3842,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4174,13 +4177,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4239,13 +4242,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>317500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>110</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4306,9 +4309,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4373,9 +4376,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4446,9 +4449,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>123</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4515,7 +4518,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4872,35 +4875,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" style="94" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="94" customWidth="1"/>
-    <col min="5" max="7" width="13.42578125" style="94" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" style="94" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="94" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="94" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" style="94" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="94" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="95"/>
-    <col min="16" max="16" width="9.85546875" style="96" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="94" customWidth="1"/>
-    <col min="18" max="20" width="12.42578125" style="94" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="94" customWidth="1"/>
-    <col min="26" max="28" width="7.85546875" style="94" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="94"/>
+    <col min="1" max="1" width="12.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.453125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="94" customWidth="1"/>
+    <col min="5" max="7" width="13.453125" style="94" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" style="94" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" style="94" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="94" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" style="94" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" style="94" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="95"/>
+    <col min="16" max="16" width="9.81640625" style="96" customWidth="1"/>
+    <col min="17" max="17" width="7.81640625" style="94" customWidth="1"/>
+    <col min="18" max="20" width="12.453125" style="94" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1796875" style="94" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" style="94" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.453125" style="94" customWidth="1"/>
+    <col min="26" max="28" width="7.81640625" style="94" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="94">
         <v>1</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="94">
         <v>2</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="94">
         <v>3</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="94">
         <v>4</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="94">
         <v>5</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="94">
         <v>6</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="94">
         <v>7</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="94">
         <v>8</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="94">
         <v>9</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="94">
         <v>10</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="94">
         <v>11</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="94">
         <v>12</v>
       </c>
@@ -5322,7 +5325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="94">
         <v>13</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="94">
         <v>14</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="94">
         <v>15</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="94">
         <v>16</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="94">
         <v>17</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="94">
         <v>18</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="94">
         <v>19</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="94">
         <v>20</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="94">
         <v>21</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="94">
         <v>22</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="94">
         <v>23</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="94">
         <v>24</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="94">
         <v>25</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="94">
         <v>26</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="94">
         <v>27</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="94">
         <v>28</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="94">
         <v>29</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="94">
         <v>30</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="94">
         <v>31</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="94">
         <v>32</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="94">
         <v>33</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="94">
         <v>34</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="94">
         <v>35</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="94">
         <v>36</v>
       </c>
@@ -5994,7 +5997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="94">
         <v>37</v>
       </c>
@@ -6022,7 +6025,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="94">
         <v>38</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="94">
         <v>39</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="94">
         <v>40</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="94">
         <v>41</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="94">
         <v>42</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="94">
         <v>43</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="94">
         <v>44</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="94">
         <v>45</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="94">
         <v>46</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="94">
         <v>47</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="94">
         <v>48</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="94">
         <v>49</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="94">
         <v>50</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="94">
         <v>51</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="94">
         <v>52</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="94">
         <v>53</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="94">
         <v>54</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="94">
         <v>55</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="94">
         <v>56</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="94">
         <v>57</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="94">
         <v>58</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="94">
         <v>59</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="94">
         <v>60</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" s="94">
         <v>61</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" s="94">
         <v>62</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" s="94">
         <v>63</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" s="94">
         <v>64</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" s="94">
         <v>65</v>
       </c>
@@ -6806,7 +6809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" s="94">
         <v>66</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" s="94">
         <v>67</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" s="94">
         <v>68</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" s="94">
         <v>69</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" s="94">
         <v>70</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" s="94">
         <v>71</v>
       </c>
@@ -6974,7 +6977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" s="94">
         <v>72</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" s="94">
         <v>73</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" s="94">
         <v>74</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" s="94">
         <v>75</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" s="94">
         <v>76</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" s="94">
         <v>77</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" s="94">
         <v>78</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" s="94">
         <v>79</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" s="94">
         <v>80</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" s="94">
         <v>81</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" s="94">
         <v>82</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" s="94">
         <v>83</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="94">
         <v>84</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" s="94">
         <v>85</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" s="94">
         <v>86</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" s="94">
         <v>87</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89" s="94">
         <v>88</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A90" s="94">
         <v>89</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A91" s="94">
         <v>90</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A92" s="94">
         <v>91</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A93" s="94">
         <v>92</v>
       </c>
@@ -7562,7 +7565,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A94" s="94">
         <v>93</v>
       </c>
@@ -7590,7 +7593,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A95" s="94">
         <v>94</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A96" s="94">
         <v>95</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97" s="94">
         <v>96</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB98" s="97"/>
     </row>
   </sheetData>
@@ -7723,216 +7726,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE895A9B-1F34-4976-B120-D3EE7AF75A58}">
   <dimension ref="A1:AK141"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88:Q88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="9" style="14" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" style="14" customWidth="1"/>
+    <col min="9" max="10" width="8.453125" style="14" customWidth="1"/>
     <col min="11" max="11" width="9" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="14" customWidth="1"/>
-    <col min="13" max="14" width="8.5703125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="14"/>
-    <col min="16" max="16" width="8.140625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="14" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="14" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="14" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="14" customWidth="1"/>
-    <col min="21" max="22" width="5.42578125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" style="14" customWidth="1"/>
-    <col min="24" max="25" width="5.85546875" style="14" customWidth="1"/>
-    <col min="26" max="27" width="6.42578125" style="14" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="14" customWidth="1"/>
-    <col min="30" max="31" width="8.85546875" style="14"/>
-    <col min="32" max="32" width="9.42578125" style="14" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="14"/>
+    <col min="12" max="12" width="10.453125" style="14" customWidth="1"/>
+    <col min="13" max="14" width="8.54296875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="14"/>
+    <col min="16" max="16" width="8.1796875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="5.54296875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="14" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="14" customWidth="1"/>
+    <col min="21" max="22" width="5.453125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" style="14" customWidth="1"/>
+    <col min="24" max="25" width="5.81640625" style="14" customWidth="1"/>
+    <col min="26" max="27" width="6.453125" style="14" customWidth="1"/>
+    <col min="28" max="28" width="6.1796875" style="14" customWidth="1"/>
+    <col min="29" max="29" width="5.81640625" style="14" customWidth="1"/>
+    <col min="30" max="31" width="8.81640625" style="14"/>
+    <col min="32" max="32" width="9.453125" style="14" customWidth="1"/>
+    <col min="33" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="126" t="s">
+      <c r="O2" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-    </row>
-    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+    </row>
+    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-    </row>
-    <row r="4" spans="1:37" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+    </row>
+    <row r="4" spans="1:37" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-    </row>
-    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+    </row>
+    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
       <c r="AK5" s="18"/>
     </row>
-    <row r="6" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+    <row r="6" spans="1:37" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
       <c r="K6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="17"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
       <c r="AK6" s="18"/>
     </row>
-    <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="127" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="128"/>
+      <c r="K7" s="172"/>
       <c r="L7" s="17"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
       <c r="AK7" s="18"/>
     </row>
-    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
       <c r="K8" s="57"/>
       <c r="L8" s="58" t="s">
         <v>113</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
+        <v>161</v>
+      </c>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
       <c r="AK8" s="18"/>
     </row>
-    <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+    <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
       <c r="K9" s="60"/>
       <c r="L9" s="61" t="s">
         <v>115</v>
@@ -7940,23 +7943,23 @@
       <c r="M9" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-    </row>
-    <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+    </row>
+    <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
       <c r="K10" s="60"/>
       <c r="L10" s="58" t="s">
         <v>116</v>
@@ -7964,23 +7967,23 @@
       <c r="M10" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-    </row>
-    <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113" t="s">
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+    </row>
+    <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
       <c r="K11" s="60"/>
       <c r="L11" s="63" t="s">
         <v>117</v>
@@ -7989,13 +7992,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="65"/>
       <c r="F12" s="19" t="b">
         <f>MOD(E12,8)=0</f>
@@ -8011,21 +8014,23 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
+    <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="66">
+        <v>12</v>
+      </c>
       <c r="F13" s="19" t="b">
         <f>MOD(E13,12)=0</f>
         <v>1</v>
       </c>
       <c r="G13" s="19">
         <f>ROUNDDOWN((E13/12),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19">
         <f>E13-G13*12</f>
@@ -8033,31 +8038,31 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="118" t="s">
+    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
-    </row>
-    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
+    </row>
+    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="23" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="C16" s="24">
         <v>1</v>
@@ -8097,7 +8102,7 @@
       </c>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="25" t="s">
         <v>1</v>
@@ -8152,7 +8157,7 @@
       </c>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="25" t="s">
         <v>2</v>
@@ -8207,7 +8212,7 @@
       </c>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="25" t="s">
         <v>3</v>
@@ -8262,7 +8267,7 @@
       </c>
       <c r="O19" s="28"/>
     </row>
-    <row r="20" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="25" t="s">
         <v>4</v>
@@ -8317,7 +8322,7 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="25" t="s">
         <v>5</v>
@@ -8372,7 +8377,7 @@
       </c>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="25" t="s">
         <v>6</v>
@@ -8427,7 +8432,7 @@
       </c>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="25" t="s">
         <v>7</v>
@@ -8482,7 +8487,7 @@
       </c>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="25" t="s">
         <v>8</v>
@@ -8537,7 +8542,7 @@
       </c>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>61</v>
       </c>
@@ -8593,7 +8598,7 @@
       <c r="AB25" s="54"/>
       <c r="AC25" s="28"/>
     </row>
-    <row r="26" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="25" t="s">
         <v>1</v>
       </c>
@@ -8660,7 +8665,7 @@
       <c r="AB26" s="54"/>
       <c r="AC26" s="28"/>
     </row>
-    <row r="27" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="25" t="s">
         <v>2</v>
       </c>
@@ -8727,7 +8732,7 @@
       <c r="AB27" s="54"/>
       <c r="AC27" s="28"/>
     </row>
-    <row r="28" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="25" t="s">
         <v>3</v>
       </c>
@@ -8794,7 +8799,7 @@
       <c r="AB28" s="54"/>
       <c r="AC28" s="28"/>
     </row>
-    <row r="29" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="25" t="s">
         <v>4</v>
       </c>
@@ -8861,7 +8866,7 @@
       <c r="AB29" s="54"/>
       <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
@@ -8928,7 +8933,7 @@
       <c r="AB30" s="54"/>
       <c r="AC30" s="28"/>
     </row>
-    <row r="31" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="25" t="s">
         <v>6</v>
       </c>
@@ -8995,7 +9000,7 @@
       <c r="AB31" s="54"/>
       <c r="AC31" s="28"/>
     </row>
-    <row r="32" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="25" t="s">
         <v>7</v>
       </c>
@@ -9062,7 +9067,7 @@
       <c r="AB32" s="54"/>
       <c r="AC32" s="28"/>
     </row>
-    <row r="33" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="25" t="s">
         <v>8</v>
       </c>
@@ -9129,7 +9134,7 @@
       <c r="AB33" s="54"/>
       <c r="AC33" s="28"/>
     </row>
-    <row r="34" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>119</v>
       </c>
@@ -9185,7 +9190,7 @@
       <c r="AB34" s="54"/>
       <c r="AC34" s="28"/>
     </row>
-    <row r="35" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="25" t="s">
         <v>1</v>
       </c>
@@ -9252,7 +9257,7 @@
       <c r="AB35" s="54"/>
       <c r="AC35" s="28"/>
     </row>
-    <row r="36" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="25" t="s">
         <v>2</v>
       </c>
@@ -9319,7 +9324,7 @@
       <c r="AB36" s="54"/>
       <c r="AC36" s="28"/>
     </row>
-    <row r="37" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="25" t="s">
         <v>3</v>
       </c>
@@ -9386,7 +9391,7 @@
       <c r="AB37" s="54"/>
       <c r="AC37" s="28"/>
     </row>
-    <row r="38" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="25" t="s">
         <v>4</v>
       </c>
@@ -9453,7 +9458,7 @@
       <c r="AB38" s="54"/>
       <c r="AC38" s="28"/>
     </row>
-    <row r="39" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -9520,7 +9525,7 @@
       <c r="AB39" s="54"/>
       <c r="AC39" s="28"/>
     </row>
-    <row r="40" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -9587,7 +9592,7 @@
       <c r="AB40" s="54"/>
       <c r="AC40" s="28"/>
     </row>
-    <row r="41" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="25" t="s">
         <v>7</v>
       </c>
@@ -9654,7 +9659,7 @@
       <c r="AB41" s="54"/>
       <c r="AC41" s="28"/>
     </row>
-    <row r="42" spans="1:29" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="25" t="s">
         <v>8</v>
       </c>
@@ -9721,41 +9726,41 @@
       <c r="AB42" s="54"/>
       <c r="AC42" s="28"/>
     </row>
-    <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="22"/>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="123"/>
-    </row>
-    <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="165"/>
+    </row>
+    <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="21"/>
       <c r="B44" s="13" t="str">
         <f>IF(ISNUMBER($E$12),IF($M$9="Yes",IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E13*D46/8*1.1)," µL of FS1 into each well of column 1 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D46*1.1)," µL of FS1 into first ",H12," wells and ",FIXED((G12)*D46*1.1)," µL into the other wells of MM plate column 1")), "Skip" ), IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*D46/12*1.1)," µL of FS1 into each well of row A of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*D46*1.1)," µL of FS1 into first ",$H$13," wells and ",FIXED(($G$13)*D46*1.1)," µL into the other wells of MM plate row A")))</f>
-        <v>Pipet 0.00 µL of FS1 into each well of row A of MM plate</v>
+        <v>Pipet 5.50 µL of FS1 into each well of row A of MM plate</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="N44" s="124" t="str">
+      <c r="N44" s="166" t="str">
         <f>IF(M9="No","Skip this part",IF($M$9=$M$10,"Skip this only for low Input samples", " "))</f>
         <v>Skip this only for low Input samples</v>
       </c>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="21"/>
       <c r="B45" s="13" t="str">
         <f>IF($M$9="Yes", "Mix:", "Skip")</f>
@@ -9770,11 +9775,11 @@
       <c r="E45" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="125"/>
+      <c r="N45" s="167"/>
       <c r="O45" s="28"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:29" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="22"/>
       <c r="B46" s="13"/>
       <c r="C46" s="32" t="s">
@@ -9786,10 +9791,10 @@
       <c r="E46" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="N46" s="125"/>
+      <c r="N46" s="167"/>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:29" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="22"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -9802,10 +9807,10 @@
       <c r="F47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="125"/>
+      <c r="N47" s="167"/>
       <c r="O47" s="28"/>
     </row>
-    <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="21"/>
       <c r="B48" s="13" t="str">
         <f>IF($M$9="Yes", "Incubate:", "Skip")</f>
@@ -9818,10 +9823,10 @@
       <c r="F48" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="N48" s="125"/>
+      <c r="N48" s="167"/>
       <c r="O48" s="28"/>
     </row>
-    <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="22"/>
       <c r="B49" s="13"/>
       <c r="D49" s="38" t="s">
@@ -9831,30 +9836,30 @@
         <v>14</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="N49" s="125"/>
+      <c r="N49" s="167"/>
       <c r="O49" s="28"/>
     </row>
-    <row r="50" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="21"/>
-      <c r="B50" s="162" t="str">
+      <c r="B50" s="173" t="str">
         <f>IF(ISNUMBER($E$13),IF($F$13=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED($E$13*D54/12*1.1)," µL of F into each well of row B of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(($G$13+1)*D54*1.1)," µL of F into first ",$H$13," wells and ",FIXED(($G$13)*D54*1.1)," µL into the other wells of MM plate row B")),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(E12*D54/8*1.1)," µL into each well of column 2 of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED((G12+1)*D54*1.1)," µL into first ",H12," wells and ",FIXED((G12)*D54*1.1)," µL into the other wells of MM plate column 2")))</f>
-        <v>Prepare Mastermix (F) according to the following table and pipet 0.00 µL into each well of column 2 of MM plate</v>
-      </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="163"/>
-      <c r="J50" s="163"/>
-      <c r="K50" s="163"/>
-      <c r="L50" s="163"/>
-      <c r="M50" s="163"/>
-      <c r="N50" s="163"/>
-      <c r="O50" s="163"/>
-    </row>
-    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Prepare Mastermix (F) according to the following table and pipet 11.00 µL of F into each well of row B of MM plate</v>
+      </c>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
+      <c r="E50" s="174"/>
+      <c r="F50" s="174"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="174"/>
+      <c r="I50" s="174"/>
+      <c r="J50" s="174"/>
+      <c r="K50" s="174"/>
+      <c r="L50" s="174"/>
+      <c r="M50" s="174"/>
+      <c r="N50" s="174"/>
+      <c r="O50" s="174"/>
+    </row>
+    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="22"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -9863,22 +9868,22 @@
       </c>
       <c r="E51" s="55" t="str">
         <f>IF(ISNUMBER($E$13),CONCATENATE(" Volume for ",$E$13," samples"),CONCATENATE(" Volume for ",$E$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-      <c r="I51" s="107" t="s">
+        <v xml:space="preserve"> Volume for 12 samples</v>
+      </c>
+      <c r="I51" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="108"/>
+      <c r="J51" s="149"/>
       <c r="K51" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="L51" s="109" t="s">
+      <c r="L51" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="M51" s="109"/>
+      <c r="M51" s="150"/>
       <c r="N51" s="71"/>
     </row>
-    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="22"/>
       <c r="C52" s="29" t="s">
         <v>16</v>
@@ -9888,7 +9893,7 @@
       </c>
       <c r="E52" s="30">
         <f>IF(ISNUMBER($E$13),D52*$E$13*1.1,D52*$E$12*1.1)</f>
-        <v>0</v>
+        <v>125.4</v>
       </c>
       <c r="F52" s="56" t="s">
         <v>49</v>
@@ -9901,16 +9906,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "5","")</f>
         <v>5</v>
       </c>
-      <c r="L52" s="130">
+      <c r="L52" s="133">
         <f>IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K52*$E$13*1.1,""),K52*$E$12*1.1)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="131"/>
+        <v>66</v>
+      </c>
+      <c r="M52" s="134"/>
       <c r="N52" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="22"/>
       <c r="C53" s="32" t="s">
         <v>9</v>
@@ -9920,7 +9925,7 @@
       </c>
       <c r="E53" s="33">
         <f>IF(ISNUMBER($E$13),D53*$E$13*1.1,D53*$E$12*1.1)</f>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>49</v>
@@ -9933,16 +9938,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "9.5","")</f>
         <v>9.5</v>
       </c>
-      <c r="L53" s="130">
+      <c r="L53" s="133">
         <f t="shared" ref="L53:L54" si="0">IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K53*$E$13*1.1,""),K53*$E$12*1.1)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="131"/>
+        <v>125.4</v>
+      </c>
+      <c r="M53" s="134"/>
       <c r="N53" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="22"/>
       <c r="C54" s="35"/>
       <c r="D54" s="36">
@@ -9950,7 +9955,7 @@
       </c>
       <c r="E54" s="40">
         <f>E52+E53</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F54" s="68" t="s">
         <v>49</v>
@@ -9966,16 +9971,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "0.5","")</f>
         <v>0.5</v>
       </c>
-      <c r="L54" s="130">
+      <c r="L54" s="133">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="131"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="M54" s="134"/>
       <c r="N54" s="77" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="21"/>
       <c r="B55" s="13" t="s">
         <v>51</v>
@@ -9988,22 +9993,22 @@
         <f>SUM(K52:K54)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="132">
+      <c r="L55" s="135">
         <f>SUM(L52:L54)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="133"/>
+        <v>198</v>
+      </c>
+      <c r="M55" s="136"/>
       <c r="N55" s="80" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="41"/>
       <c r="B56" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="21"/>
       <c r="B57" s="42" t="s">
         <v>48</v>
@@ -10017,7 +10022,7 @@
         <v>Incubate the low/ultralow input samples for 15 min or 1 hr at 42°C</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="22"/>
       <c r="D58" s="38" t="s">
         <v>22</v>
@@ -10026,33 +10031,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
-      <c r="B59" s="134" t="s">
+      <c r="B59" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="J59" s="135"/>
-      <c r="K59" s="135"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
-      <c r="N59" s="135"/>
-      <c r="O59" s="136"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="138"/>
+      <c r="L59" s="138"/>
+      <c r="M59" s="138"/>
+      <c r="N59" s="138"/>
+      <c r="O59" s="139"/>
+    </row>
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="44"/>
       <c r="B60" s="13" t="str">
         <f>IF(ISNUMBER($E$13),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D62/8*1.1)," µL of RS into each well of row C of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D62*1.1)," µL of RS into first ",H13," wells and ",FIXED((G13)*D62*1.1)," µL into the other wells of MM plate row C")),IF($F$12=TRUE,CONCATENATE("Pipet ",FIXED($E$12*D62/8*1.1)," µL of RS into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$12+1)*D62*1.1)," µL of RS into first ",H12," wells and ",FIXED(($G$12)*D62*1.1)," µL into the other wells of MM plate column 3")))</f>
-        <v>Pipet 0.00 µL of RS into each well of column 3 of MM plate</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Pipet 8.25 µL of RS into each well of row C of MM plate</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="21"/>
       <c r="B61" s="13" t="s">
         <v>47</v>
@@ -10068,10 +10073,10 @@
       </c>
       <c r="H61" s="20" t="str">
         <f>IF($M$8="Yes", "Thaw USS at 37°C","Thaw SS1 at 37°C")</f>
-        <v>Thaw USS at 37°C</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Thaw SS1 at 37°C</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="22"/>
       <c r="C62" s="32" t="s">
         <v>21</v>
@@ -10083,7 +10088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="22"/>
       <c r="C63" s="35"/>
       <c r="D63" s="36">
@@ -10096,7 +10101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="21"/>
       <c r="B64" s="13" t="s">
         <v>53</v>
@@ -10111,7 +10116,7 @@
         <v>Incubate: 95°C/5min for ULTRALOW</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="22"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -10122,30 +10127,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="22"/>
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="138"/>
-      <c r="G66" s="138"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="138"/>
-      <c r="J66" s="138"/>
-      <c r="K66" s="138"/>
-      <c r="L66" s="138"/>
-      <c r="M66" s="138"/>
-      <c r="N66" s="138"/>
-      <c r="O66" s="139"/>
-    </row>
-    <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="141"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="141"/>
+      <c r="I66" s="141"/>
+      <c r="J66" s="141"/>
+      <c r="K66" s="141"/>
+      <c r="L66" s="141"/>
+      <c r="M66" s="141"/>
+      <c r="N66" s="141"/>
+      <c r="O66" s="142"/>
+    </row>
+    <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="21"/>
       <c r="B67" s="53" t="str">
         <f>IF($M$8="Yes", "Thaw USS at 37°C","Thaw SS1 at 37°C")</f>
-        <v>Thaw USS at 37°C</v>
+        <v>Thaw SS1 at 37°C</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -10153,14 +10158,14 @@
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
     </row>
-    <row r="68" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="21"/>
       <c r="B68" s="13" t="str">
         <f>IF(ISNUMBER($E$13),IF(M8="No",IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D70/12*1.1)," µL of SS1 into each well of row D of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D70*1.1)," µL of SS1 into first ",H13," wells and ",FIXED((G13)*D70*1.1)," µL into the other wells of MM plate Row D")),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D70/12*1.1)," µL of USS into each well of row D of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D70*1.1)," µL of USS into first ",H13," wells and ",FIXED((G13)*D70*1.1)," µL into the other wells of MM plate row D"))),IF(M8="No",IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E12*D70/8*1.1)," µL of SS1 into each well of column 4 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D70*1.1)," µL of SS1 into first ",H13," wells and ",FIXED((G12)*D70*1.1)," µL into the other wells of MM plate column 4")),IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E12*D70/8*1.1)," µL of USS into each well of column 4 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D70*1.1)," µL of USS into first ",H13," wells and ",FIXED((G12)*D70*1.1)," µL into the other wells of MM plate column 4"))))</f>
-        <v>Pipet 0.00 µL of USS into each well of column 4 of MM plate</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Pipet 11.00 µL of SS1 into each well of row D of MM plate</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C69" s="30" t="s">
         <v>54</v>
       </c>
@@ -10171,11 +10176,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="22"/>
       <c r="C70" s="32" t="str">
         <f>IF($M$8="Yes", "USS","SS1")</f>
-        <v>USS</v>
+        <v>SS1</v>
       </c>
       <c r="D70" s="33">
         <v>10</v>
@@ -10184,7 +10189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="22"/>
       <c r="C71" s="35"/>
       <c r="D71" s="36">
@@ -10197,7 +10202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="21"/>
       <c r="B72" s="13" t="s">
         <v>48</v>
@@ -10206,13 +10211,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="22"/>
       <c r="D73" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="22"/>
       <c r="D74" s="43" t="s">
         <v>25</v>
@@ -10221,14 +10226,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="21"/>
       <c r="B75" s="13" t="str">
         <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED(E12*D78/8*1.1)," µL of S into each well of column 5 of MM plate"),CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED((G12+1)*D78*1.1)," µL of S into first ",H12," wells and ",FIXED((G12)*D78*1.1)," µL into the other wells of MM plate column 5")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED(E13*D78/12*1.1)," µL of S into each well of row E of MM plate"),CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED((G13+1)*D78*1.1)," µL of S into first ",H13," wells and ",FIXED((G13)*D78*1.1)," µL into the other wells of MM plate row E")))</f>
-        <v>Prepare Mastermix (S) according to the following table and pipet 0.00 µL of S into each well of row E of MM plate</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Prepare Mastermix (S) according to the following table and pipet 5.50 µL of S into each well of row E of MM plate</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="21"/>
       <c r="B76" s="13" t="s">
         <v>47</v>
@@ -10241,18 +10246,18 @@
       </c>
       <c r="E76" s="31">
         <f>IF(ISNUMBER($E$13),D76*$E$13*1.1,D76*$E$12*1.1)</f>
-        <v>0</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="F76" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I76" s="140" t="s">
+      <c r="I76" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-    </row>
-    <row r="77" spans="1:21" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="143"/>
+      <c r="K76" s="143"/>
+    </row>
+    <row r="77" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C77" s="32" t="s">
         <v>10</v>
       </c>
@@ -10261,13 +10266,13 @@
       </c>
       <c r="E77" s="34">
         <f>D77*$E$13*1.1</f>
-        <v>0</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="F77" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="22"/>
       <c r="C78" s="35"/>
       <c r="D78" s="36">
@@ -10275,7 +10280,7 @@
       </c>
       <c r="E78" s="37">
         <f>SUM(E76:E77)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F78" s="85" t="s">
         <v>49</v>
@@ -10284,7 +10289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="21"/>
       <c r="B79" s="13" t="s">
         <v>48</v>
@@ -10292,88 +10297,88 @@
       <c r="D79" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="P79" s="141" t="s">
+      <c r="P79" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="Q79" s="141"/>
-    </row>
-    <row r="80" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q79" s="144"/>
+    </row>
+    <row r="80" spans="1:21" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80"/>
-      <c r="B80" s="142" t="s">
+      <c r="B80" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143"/>
-      <c r="F80" s="143"/>
-      <c r="G80" s="143"/>
-      <c r="H80" s="143"/>
-      <c r="I80" s="143"/>
-      <c r="J80" s="143"/>
-      <c r="K80" s="143"/>
-      <c r="L80" s="143"/>
-      <c r="M80" s="143"/>
-      <c r="N80" s="143"/>
-      <c r="O80" s="144"/>
-      <c r="P80" s="129" t="s">
+      <c r="C80" s="146"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="146"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
+      <c r="M80" s="146"/>
+      <c r="N80" s="146"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="Q80" s="129"/>
-      <c r="R80" s="129" t="s">
+      <c r="Q80" s="119"/>
+      <c r="R80" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="S80" s="129"/>
-      <c r="T80" s="129" t="s">
+      <c r="S80" s="119"/>
+      <c r="T80" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="U80" s="129"/>
-    </row>
-    <row r="81" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U80" s="119"/>
+    </row>
+    <row r="81" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="21"/>
       <c r="B81" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="P81" s="145" t="s">
+      <c r="P81" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="Q81" s="145"/>
-      <c r="R81" s="145">
+      <c r="Q81" s="118"/>
+      <c r="R81" s="118">
         <v>7</v>
       </c>
-      <c r="S81" s="145"/>
-      <c r="T81" s="129"/>
-      <c r="U81" s="129"/>
-    </row>
-    <row r="82" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S81" s="118"/>
+      <c r="T81" s="119"/>
+      <c r="U81" s="119"/>
+    </row>
+    <row r="82" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="21"/>
-      <c r="B82" s="150" t="s">
+      <c r="B82" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="151"/>
-      <c r="D82" s="151"/>
-      <c r="E82" s="151"/>
-      <c r="F82" s="151"/>
-      <c r="G82" s="151"/>
-      <c r="H82" s="151"/>
-      <c r="I82" s="151"/>
-      <c r="J82" s="151"/>
-      <c r="K82" s="151"/>
-      <c r="L82" s="151"/>
-      <c r="M82" s="151"/>
-      <c r="N82" s="151"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="145" t="s">
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="131"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="131"/>
+      <c r="O82" s="132"/>
+      <c r="P82" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="Q82" s="145"/>
-      <c r="R82" s="145">
+      <c r="Q82" s="118"/>
+      <c r="R82" s="118">
         <v>1</v>
       </c>
-      <c r="S82" s="145"/>
-      <c r="T82" s="129"/>
-      <c r="U82" s="129"/>
-    </row>
-    <row r="83" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S82" s="118"/>
+      <c r="T82" s="119"/>
+      <c r="U82" s="119"/>
+    </row>
+    <row r="83" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="22"/>
       <c r="B83" s="14" t="s">
         <v>128</v>
@@ -10382,125 +10387,125 @@
         <v>62</v>
       </c>
       <c r="M83" s="48"/>
-      <c r="P83" s="145" t="s">
+      <c r="P83" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="Q83" s="145"/>
-      <c r="R83" s="145">
-        <v>5</v>
-      </c>
-      <c r="S83" s="145"/>
-      <c r="T83" s="129"/>
-      <c r="U83" s="129"/>
-    </row>
-    <row r="84" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q83" s="118"/>
+      <c r="R83" s="118">
+        <v>5</v>
+      </c>
+      <c r="S83" s="118"/>
+      <c r="T83" s="119"/>
+      <c r="U83" s="119"/>
+    </row>
+    <row r="84" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="22"/>
-      <c r="B84" s="146" t="s">
+      <c r="B84" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="147"/>
-      <c r="D84" s="147"/>
-      <c r="E84" s="147"/>
-      <c r="F84" s="147"/>
-      <c r="G84" s="147"/>
-      <c r="H84" s="147"/>
-      <c r="I84" s="147"/>
-      <c r="J84" s="147"/>
-      <c r="K84" s="147"/>
-      <c r="L84" s="147"/>
-      <c r="M84" s="147"/>
-      <c r="N84" s="147"/>
-      <c r="O84" s="148"/>
-      <c r="P84" s="149" t="s">
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="127"/>
+      <c r="I84" s="127"/>
+      <c r="J84" s="127"/>
+      <c r="K84" s="127"/>
+      <c r="L84" s="127"/>
+      <c r="M84" s="127"/>
+      <c r="N84" s="127"/>
+      <c r="O84" s="128"/>
+      <c r="P84" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="Q84" s="145"/>
-      <c r="R84" s="145">
-        <v>5</v>
-      </c>
-      <c r="S84" s="145"/>
-      <c r="T84" s="129"/>
-      <c r="U84" s="129"/>
-    </row>
-    <row r="85" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q84" s="118"/>
+      <c r="R84" s="118">
+        <v>5</v>
+      </c>
+      <c r="S84" s="118"/>
+      <c r="T84" s="119"/>
+      <c r="U84" s="119"/>
+    </row>
+    <row r="85" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="21"/>
-      <c r="B85" s="166" t="str">
+      <c r="B85" s="123" t="str">
         <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E12*(D89+D90)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G12+1)*(D89+D90)*1.1)," µL of P into first ",H12," wells and ",FIXED((G12)*(D89+D90)*1.1)," µL into the other wells of MM plate column 6")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E13*(D89+D90)/8*1.1)," µL of P into each well of row F of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G13+1)*(D89+D90)*1.1)," µL of P into first ",H13," wells and ",FIXED((G13)*(D89+D90)*1.1)," µL into the other wells of MM plate row F")) )</f>
-        <v>Prepare Mastermix (P) according to the following table and pipet 0.00 µL of P into each well of row F of MM plate</v>
-      </c>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
-      <c r="F85" s="167"/>
-      <c r="G85" s="167"/>
-      <c r="H85" s="167"/>
-      <c r="I85" s="167"/>
-      <c r="J85" s="167"/>
-      <c r="K85" s="167"/>
-      <c r="L85" s="167"/>
-      <c r="M85" s="167"/>
-      <c r="N85" s="167"/>
-      <c r="O85" s="168"/>
-      <c r="P85" s="154" t="s">
+        <v>Prepare Mastermix (P) according to the following table and pipet 6.60 µL of P into each well of row F of MM plate</v>
+      </c>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
+      <c r="J85" s="124"/>
+      <c r="K85" s="124"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="124"/>
+      <c r="N85" s="124"/>
+      <c r="O85" s="125"/>
+      <c r="P85" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="Q85" s="154"/>
-      <c r="R85" s="145">
+      <c r="Q85" s="120"/>
+      <c r="R85" s="118">
         <v>0.03</v>
       </c>
-      <c r="S85" s="145"/>
-      <c r="T85" s="129"/>
-      <c r="U85" s="129"/>
-    </row>
-    <row r="86" spans="1:28" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S85" s="118"/>
+      <c r="T85" s="119"/>
+      <c r="U85" s="119"/>
+    </row>
+    <row r="86" spans="1:28" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="21"/>
-      <c r="B86" s="164" t="s">
+      <c r="B86" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="165"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="165"/>
-      <c r="F86" s="165"/>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
-      <c r="I86" s="165"/>
-      <c r="J86" s="165"/>
-      <c r="K86" s="165"/>
-      <c r="L86" s="165"/>
-      <c r="M86" s="165"/>
-      <c r="N86" s="165"/>
-      <c r="O86" s="165"/>
-      <c r="P86" s="154" t="s">
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="122"/>
+      <c r="H86" s="122"/>
+      <c r="I86" s="122"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="122"/>
+      <c r="L86" s="122"/>
+      <c r="M86" s="122"/>
+      <c r="N86" s="122"/>
+      <c r="O86" s="122"/>
+      <c r="P86" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="Q86" s="154"/>
-      <c r="R86" s="145">
+      <c r="Q86" s="120"/>
+      <c r="R86" s="118">
         <v>15.27</v>
       </c>
-      <c r="S86" s="145"/>
-      <c r="T86" s="129"/>
-      <c r="U86" s="129"/>
-    </row>
-    <row r="87" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S86" s="118"/>
+      <c r="T86" s="119"/>
+      <c r="U86" s="119"/>
+    </row>
+    <row r="87" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="22"/>
       <c r="B87" s="86"/>
       <c r="E87" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P87" s="145" t="s">
+      <c r="P87" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q87" s="145"/>
-      <c r="R87" s="145">
+      <c r="Q87" s="118"/>
+      <c r="R87" s="118">
         <v>1.7</v>
       </c>
-      <c r="S87" s="145"/>
-      <c r="T87" s="129" t="s">
+      <c r="S87" s="118"/>
+      <c r="T87" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="U87" s="129"/>
-    </row>
-    <row r="88" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U87" s="119"/>
+    </row>
+    <row r="88" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="22"/>
       <c r="C88" s="49" t="s">
         <v>30</v>
@@ -10512,18 +10517,18 @@
       <c r="F88" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="P88" s="145" t="s">
+      <c r="P88" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="Q88" s="145"/>
-      <c r="R88" s="145">
+      <c r="Q88" s="118"/>
+      <c r="R88" s="118">
         <v>33.299999999999997</v>
       </c>
-      <c r="S88" s="145"/>
-      <c r="T88" s="129"/>
-      <c r="U88" s="129"/>
-    </row>
-    <row r="89" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S88" s="118"/>
+      <c r="T88" s="119"/>
+      <c r="U88" s="119"/>
+    </row>
+    <row r="89" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="22"/>
       <c r="C89" s="29" t="s">
         <v>37</v>
@@ -10533,13 +10538,13 @@
       </c>
       <c r="E89" s="50">
         <f>D89*E13*1.1</f>
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="F89" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="22"/>
       <c r="C90" s="29" t="s">
         <v>38</v>
@@ -10549,13 +10554,13 @@
       </c>
       <c r="E90" s="30">
         <f>D90*E13*1.1</f>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="F90" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="22"/>
       <c r="C91" s="32" t="s">
         <v>39</v>
@@ -10568,7 +10573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="22"/>
       <c r="C92" s="35"/>
       <c r="D92" s="36">
@@ -10577,13 +10582,13 @@
       </c>
       <c r="E92" s="40">
         <f>SUM(E89:E90)</f>
-        <v>0</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="F92" s="85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="51"/>
       <c r="B93" s="42" t="s">
         <v>60</v>
@@ -10607,7 +10612,7 @@
       <c r="AA93"/>
       <c r="AB93"/>
     </row>
-    <row r="94" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="24">
@@ -10661,7 +10666,7 @@
       <c r="AA94"/>
       <c r="AB94"/>
     </row>
-    <row r="95" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="22"/>
       <c r="B95" s="25" t="s">
         <v>1</v>
@@ -10729,7 +10734,7 @@
       <c r="AA95"/>
       <c r="AB95"/>
     </row>
-    <row r="96" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="25" t="s">
         <v>2</v>
       </c>
@@ -10796,7 +10801,7 @@
       <c r="AA96"/>
       <c r="AB96"/>
     </row>
-    <row r="97" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="25" t="s">
         <v>3</v>
       </c>
@@ -10863,7 +10868,7 @@
       <c r="AA97"/>
       <c r="AB97"/>
     </row>
-    <row r="98" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="25" t="s">
         <v>4</v>
       </c>
@@ -10930,7 +10935,7 @@
       <c r="AA98"/>
       <c r="AB98"/>
     </row>
-    <row r="99" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="25" t="s">
         <v>5</v>
       </c>
@@ -10997,7 +11002,7 @@
       <c r="AA99"/>
       <c r="AB99"/>
     </row>
-    <row r="100" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="25" t="s">
         <v>6</v>
       </c>
@@ -11064,7 +11069,7 @@
       <c r="AA100"/>
       <c r="AB100"/>
     </row>
-    <row r="101" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="25" t="s">
         <v>7</v>
       </c>
@@ -11131,7 +11136,7 @@
       <c r="AA101"/>
       <c r="AB101"/>
     </row>
-    <row r="102" spans="1:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B102" s="25" t="s">
         <v>8</v>
       </c>
@@ -11198,7 +11203,7 @@
       <c r="AA102"/>
       <c r="AB102"/>
     </row>
-    <row r="103" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="21"/>
       <c r="B103" s="13" t="s">
         <v>58</v>
@@ -11221,61 +11226,61 @@
       <c r="AA103"/>
       <c r="AB103"/>
     </row>
-    <row r="104" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="22"/>
       <c r="F104" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="G104" s="171" t="str">
+      <c r="G104" s="101" t="str">
         <f>IF(M83&gt;0,CONCATENATE(M83," cycles"),"___cycles")</f>
         <v>___cycles</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="22"/>
       <c r="F105" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="G105" s="172"/>
-    </row>
-    <row r="106" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="102"/>
+    </row>
+    <row r="106" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="22"/>
       <c r="F106" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="G106" s="173"/>
-    </row>
-    <row r="107" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="103"/>
+    </row>
+    <row r="107" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="22"/>
       <c r="F107" s="38" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F108" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109"/>
-      <c r="B109" s="174" t="s">
+      <c r="B109" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="C109" s="175"/>
-      <c r="D109" s="175"/>
-      <c r="E109" s="175"/>
-      <c r="F109" s="175"/>
-      <c r="G109" s="175"/>
-      <c r="H109" s="175"/>
-      <c r="I109" s="175"/>
-      <c r="J109" s="175"/>
-      <c r="K109" s="175"/>
-      <c r="L109" s="175"/>
-      <c r="M109" s="175"/>
-      <c r="N109" s="175"/>
-      <c r="O109" s="176"/>
-    </row>
-    <row r="110" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="105"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="105"/>
+      <c r="K109" s="105"/>
+      <c r="L109" s="105"/>
+      <c r="M109" s="105"/>
+      <c r="N109" s="105"/>
+      <c r="O109" s="106"/>
+    </row>
+    <row r="110" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="21"/>
       <c r="B110" s="13" t="s">
         <v>139</v>
@@ -11283,31 +11288,31 @@
       <c r="F110" s="43"/>
       <c r="K110" s="90"/>
     </row>
-    <row r="111" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="91"/>
-      <c r="B111" s="177" t="s">
+      <c r="B111" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C111" s="178"/>
-      <c r="D111" s="178"/>
-      <c r="E111" s="178"/>
-      <c r="F111" s="178"/>
-      <c r="G111" s="178"/>
-      <c r="H111" s="178"/>
-      <c r="I111" s="178"/>
-      <c r="J111" s="178"/>
-      <c r="K111" s="178"/>
-      <c r="L111" s="178"/>
-      <c r="M111" s="178"/>
-      <c r="N111" s="178"/>
-      <c r="O111" s="179"/>
-    </row>
-    <row r="112" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="108"/>
+      <c r="L111" s="108"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="108"/>
+      <c r="O111" s="109"/>
+    </row>
+    <row r="112" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="23"/>
       <c r="C113" s="24">
         <v>1</v>
@@ -11346,7 +11351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="25" t="s">
         <v>1</v>
       </c>
@@ -11399,7 +11404,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="25" t="s">
         <v>2</v>
       </c>
@@ -11452,7 +11457,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="25" t="s">
         <v>3</v>
       </c>
@@ -11505,7 +11510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="25" t="s">
         <v>4</v>
       </c>
@@ -11558,7 +11563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="25" t="s">
         <v>5</v>
       </c>
@@ -11611,7 +11616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="25" t="s">
         <v>6</v>
       </c>
@@ -11664,7 +11669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="25" t="s">
         <v>7</v>
       </c>
@@ -11717,7 +11722,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B121" s="25" t="s">
         <v>8</v>
       </c>
@@ -11770,7 +11775,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="44"/>
       <c r="B122" s="92" t="s">
         <v>140</v>
@@ -11778,7 +11783,7 @@
       <c r="C122" s="13"/>
       <c r="E122" s="93"/>
     </row>
-    <row r="123" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="44"/>
       <c r="B123" s="13" t="s">
         <v>152</v>
@@ -11787,7 +11792,7 @@
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="42"/>
       <c r="B124" s="13"/>
       <c r="C124" s="92" t="s">
@@ -11800,7 +11805,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="42"/>
       <c r="B125" s="13"/>
       <c r="C125" s="92" t="s">
@@ -11813,286 +11818,226 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="42"/>
-      <c r="C126" s="169" t="s">
+      <c r="C126" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="D126" s="169"/>
-      <c r="E126" s="169"/>
-      <c r="F126" s="169"/>
-      <c r="G126" s="169"/>
-      <c r="H126" s="169"/>
-      <c r="I126" s="169"/>
-      <c r="J126" s="169"/>
-      <c r="K126" s="153" t="s">
+      <c r="D126" s="99"/>
+      <c r="E126" s="99"/>
+      <c r="F126" s="99"/>
+      <c r="G126" s="99"/>
+      <c r="H126" s="99"/>
+      <c r="I126" s="99"/>
+      <c r="J126" s="99"/>
+      <c r="K126" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="L126" s="153"/>
-    </row>
-    <row r="127" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L126" s="100"/>
+    </row>
+    <row r="127" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="42"/>
-      <c r="C127" s="169" t="s">
+      <c r="C127" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="D127" s="169"/>
-      <c r="E127" s="169"/>
-      <c r="F127" s="169"/>
-      <c r="G127" s="169"/>
-      <c r="H127" s="169"/>
-      <c r="I127" s="169"/>
-      <c r="J127" s="169"/>
-      <c r="K127" s="153">
+      <c r="D127" s="99"/>
+      <c r="E127" s="99"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="99"/>
+      <c r="H127" s="99"/>
+      <c r="I127" s="99"/>
+      <c r="J127" s="99"/>
+      <c r="K127" s="100">
         <v>191.96</v>
       </c>
-      <c r="L127" s="153"/>
-    </row>
-    <row r="128" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L127" s="100"/>
+    </row>
+    <row r="128" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="42"/>
-      <c r="C128" s="169" t="s">
+      <c r="C128" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="D128" s="169"/>
-      <c r="E128" s="169"/>
-      <c r="F128" s="169"/>
-      <c r="G128" s="169"/>
-      <c r="H128" s="169"/>
-      <c r="I128" s="169"/>
-      <c r="J128" s="169"/>
-      <c r="K128" s="153">
+      <c r="D128" s="99"/>
+      <c r="E128" s="99"/>
+      <c r="F128" s="99"/>
+      <c r="G128" s="99"/>
+      <c r="H128" s="99"/>
+      <c r="I128" s="99"/>
+      <c r="J128" s="99"/>
+      <c r="K128" s="100">
         <v>194.96</v>
       </c>
-      <c r="L128" s="153"/>
-    </row>
-    <row r="129" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L128" s="100"/>
+    </row>
+    <row r="129" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="42"/>
-      <c r="C129" s="169" t="s">
+      <c r="C129" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="D129" s="169"/>
-      <c r="E129" s="169"/>
-      <c r="F129" s="169"/>
-      <c r="G129" s="169"/>
-      <c r="H129" s="169"/>
-      <c r="I129" s="169"/>
-      <c r="J129" s="169"/>
-      <c r="K129" s="153">
+      <c r="D129" s="99"/>
+      <c r="E129" s="99"/>
+      <c r="F129" s="99"/>
+      <c r="G129" s="99"/>
+      <c r="H129" s="99"/>
+      <c r="I129" s="99"/>
+      <c r="J129" s="99"/>
+      <c r="K129" s="100">
         <v>195.96</v>
       </c>
-      <c r="L129" s="153"/>
-    </row>
-    <row r="130" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L129" s="100"/>
+    </row>
+    <row r="130" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="42"/>
-      <c r="C130" s="169" t="s">
+      <c r="C130" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D130" s="169"/>
-      <c r="E130" s="169"/>
-      <c r="F130" s="169"/>
-      <c r="G130" s="169"/>
-      <c r="H130" s="169"/>
-      <c r="I130" s="169"/>
-      <c r="J130" s="169"/>
-      <c r="K130" s="153">
+      <c r="D130" s="99"/>
+      <c r="E130" s="99"/>
+      <c r="F130" s="99"/>
+      <c r="G130" s="99"/>
+      <c r="H130" s="99"/>
+      <c r="I130" s="99"/>
+      <c r="J130" s="99"/>
+      <c r="K130" s="100">
         <v>196.96</v>
       </c>
-      <c r="L130" s="153"/>
-    </row>
-    <row r="131" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="100"/>
+    </row>
+    <row r="131" spans="1:12" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="42"/>
-      <c r="C131" s="169" t="s">
+      <c r="C131" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D131" s="169"/>
-      <c r="E131" s="169"/>
-      <c r="F131" s="169"/>
-      <c r="G131" s="169"/>
-      <c r="H131" s="169"/>
-      <c r="I131" s="169"/>
-      <c r="J131" s="169"/>
-      <c r="K131" s="153" t="str">
+      <c r="D131" s="99"/>
+      <c r="E131" s="99"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="99"/>
+      <c r="I131" s="99"/>
+      <c r="J131" s="99"/>
+      <c r="K131" s="100" t="str">
         <f>"081.96"</f>
         <v>081.96</v>
       </c>
-      <c r="L131" s="153"/>
-    </row>
-    <row r="134" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="170" t="s">
+      <c r="L131" s="100"/>
+    </row>
+    <row r="134" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C134" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="D134" s="170"/>
-      <c r="E134" s="170"/>
-      <c r="F134" s="155" t="s">
+      <c r="D134" s="117"/>
+      <c r="E134" s="117"/>
+      <c r="F134" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="G134" s="156"/>
-      <c r="H134" s="156"/>
-      <c r="I134" s="157"/>
-    </row>
-    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="161" t="s">
+      <c r="G134" s="111"/>
+      <c r="H134" s="111"/>
+      <c r="I134" s="112"/>
+    </row>
+    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C135" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D135" s="161"/>
-      <c r="E135" s="161"/>
-      <c r="F135" s="155" t="s">
+      <c r="D135" s="116"/>
+      <c r="E135" s="116"/>
+      <c r="F135" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="G135" s="156"/>
-      <c r="H135" s="156"/>
-      <c r="I135" s="157"/>
-    </row>
-    <row r="136" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="161" t="s">
+      <c r="G135" s="111"/>
+      <c r="H135" s="111"/>
+      <c r="I135" s="112"/>
+    </row>
+    <row r="136" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="D136" s="161"/>
-      <c r="E136" s="161"/>
-      <c r="F136" s="155" t="s">
+      <c r="D136" s="116"/>
+      <c r="E136" s="116"/>
+      <c r="F136" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="G136" s="156"/>
-      <c r="H136" s="156"/>
-      <c r="I136" s="157"/>
-    </row>
-    <row r="137" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="155" t="s">
+      <c r="G136" s="111"/>
+      <c r="H136" s="111"/>
+      <c r="I136" s="112"/>
+    </row>
+    <row r="137" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C137" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="D137" s="156"/>
-      <c r="E137" s="157"/>
-      <c r="F137" s="155" t="s">
+      <c r="D137" s="111"/>
+      <c r="E137" s="112"/>
+      <c r="F137" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="G137" s="156"/>
-      <c r="H137" s="156"/>
-      <c r="I137" s="157"/>
-    </row>
-    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="155" t="s">
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="112"/>
+    </row>
+    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C138" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="D138" s="156"/>
-      <c r="E138" s="157"/>
-      <c r="F138" s="155" t="s">
+      <c r="D138" s="111"/>
+      <c r="E138" s="112"/>
+      <c r="F138" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G138" s="156"/>
-      <c r="H138" s="156"/>
-      <c r="I138" s="157"/>
-    </row>
-    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="155" t="s">
+      <c r="G138" s="111"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="112"/>
+    </row>
+    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C139" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D139" s="156"/>
-      <c r="E139" s="157"/>
-      <c r="F139" s="155" t="s">
+      <c r="D139" s="111"/>
+      <c r="E139" s="112"/>
+      <c r="F139" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="G139" s="156"/>
-      <c r="H139" s="156"/>
-      <c r="I139" s="157"/>
-    </row>
-    <row r="140" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="155" t="s">
+      <c r="G139" s="111"/>
+      <c r="H139" s="111"/>
+      <c r="I139" s="112"/>
+    </row>
+    <row r="140" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C140" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="D140" s="156"/>
-      <c r="E140" s="157"/>
-      <c r="F140" s="155" t="s">
+      <c r="D140" s="111"/>
+      <c r="E140" s="112"/>
+      <c r="F140" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="G140" s="156"/>
-      <c r="H140" s="156"/>
-      <c r="I140" s="157"/>
-    </row>
-    <row r="141" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="155" t="s">
+      <c r="G140" s="111"/>
+      <c r="H140" s="111"/>
+      <c r="I140" s="112"/>
+    </row>
+    <row r="141" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C141" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="D141" s="156"/>
-      <c r="E141" s="157"/>
-      <c r="F141" s="158">
+      <c r="D141" s="111"/>
+      <c r="E141" s="112"/>
+      <c r="F141" s="113">
         <v>20240716</v>
       </c>
-      <c r="G141" s="159"/>
-      <c r="H141" s="159"/>
-      <c r="I141" s="160"/>
+      <c r="G141" s="114"/>
+      <c r="H141" s="114"/>
+      <c r="I141" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="C128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="C129:J129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="C130:J130"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="B109:O109"/>
-    <mergeCell ref="B111:O111"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="C127:J127"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="C131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="B84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="B82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="B59:O59"/>
-    <mergeCell ref="B66:O66"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="A9:F9"/>
@@ -12113,17 +12058,77 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B50:O50"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="B82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B59:O59"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="B84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="C128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="C130:J130"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="B109:O109"/>
+    <mergeCell ref="B111:O111"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="C127:J127"/>
+    <mergeCell ref="K127:L127"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:N33">
     <cfRule type="cellIs" dxfId="23" priority="64" operator="equal">
@@ -12203,7 +12208,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M11" xr:uid="{319D1AB4-3C0B-4017-BC56-892EC389ADA5}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
@@ -12224,13 +12229,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12244,13 +12249,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>101</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>103</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12268,13 +12273,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>93</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12296,7 +12301,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12312,13 +12317,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>260350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12332,15 +12337,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12356,13 +12361,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12378,13 +12383,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12398,15 +12403,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>107950</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>298450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12422,13 +12427,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12444,13 +12449,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12466,13 +12471,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12488,13 +12493,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12510,13 +12515,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12532,13 +12537,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12554,13 +12559,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12576,13 +12581,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12598,13 +12603,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12620,13 +12625,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12642,13 +12647,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12664,13 +12669,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12686,13 +12691,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12796,13 +12801,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12816,13 +12821,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>108</xdr:row>
-                    <xdr:rowOff>314325</xdr:rowOff>
+                    <xdr:rowOff>317500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>107950</xdr:colOff>
                     <xdr:row>110</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12838,9 +12843,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -12860,9 +12865,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -12888,9 +12893,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>123</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12912,7 +12917,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/services/opengsync-app/static/resources/templates/library_prep/QUANTSEQ.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/QUANTSEQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cemmat-my.sharepoint.com/personal/hriegler_cemm_at/Documents/Documents/GitHub/limbless-app/services/limbless-app/static/resources/templates/library_prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{FA84E37E-DC61-E841-823B-F8596B3D28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BC5159-9E4F-4031-AB4B-C7FB4108A0D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D78CB6-0E87-4367-8889-42A3130E5097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="166">
   <si>
     <t>RIN</t>
   </si>
@@ -626,9 +626,6 @@
     <t>Library kit</t>
   </si>
   <si>
-    <t>Kitnumber</t>
-  </si>
-  <si>
     <t>QuantSeq 3‘ mRNA-Seq V2 Library Prep Kit FWD with UDI 12 nt Set A1</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>QuantSeq 3‘ mRNA-Seq V2 Library Prep Kit FWD with UDI 12 nt Set A4</t>
   </si>
   <si>
-    <t>UMI Second Strand Synthesis Module for QuantSeq FWD (Illumina, Read 1)</t>
-  </si>
-  <si>
     <t>Carina Suete</t>
   </si>
   <si>
@@ -684,6 +678,24 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>library kit string</t>
+  </si>
+  <si>
+    <t>191.96;081.96</t>
+  </si>
+  <si>
+    <t>194.96;081.96</t>
+  </si>
+  <si>
+    <t>195.96;081.96</t>
+  </si>
+  <si>
+    <t>196.96;081.96</t>
+  </si>
+  <si>
+    <t>+UMIS/low input + UMIs/ultra low input + UMIs</t>
   </si>
 </sst>
 </file>
@@ -693,7 +705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,6 +895,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1448,7 +1466,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1708,12 +1726,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1739,6 +1757,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2374,13 +2398,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2439,13 +2463,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>101</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>103</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2508,13 +2532,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2581,7 +2605,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2642,13 +2666,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2707,15 +2731,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2776,13 +2800,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2843,13 +2867,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2908,15 +2932,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>298450</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2977,13 +3001,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3044,13 +3068,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3111,13 +3135,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3178,13 +3202,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3245,13 +3269,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3312,13 +3336,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3379,13 +3403,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3446,13 +3470,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3513,13 +3537,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3580,13 +3604,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3647,13 +3671,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3714,13 +3738,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3778,13 +3802,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>349249</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>30163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3842,13 +3866,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4177,13 +4201,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4242,13 +4266,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>317500</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>110</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4309,9 +4333,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4376,9 +4400,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4449,9 +4473,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>123</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4518,7 +4542,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4879,31 +4903,31 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.453125" style="94" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="94" customWidth="1"/>
-    <col min="5" max="7" width="13.453125" style="94" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" style="94" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" style="94" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="94" customWidth="1"/>
-    <col min="12" max="13" width="12.453125" style="94" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" style="94" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="95"/>
-    <col min="16" max="16" width="9.81640625" style="96" customWidth="1"/>
-    <col min="17" max="17" width="7.81640625" style="94" customWidth="1"/>
-    <col min="18" max="20" width="12.453125" style="94" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" style="94" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.1796875" style="94" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.453125" style="94" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.1796875" style="94" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.453125" style="94" customWidth="1"/>
-    <col min="26" max="28" width="7.81640625" style="94" customWidth="1"/>
-    <col min="29" max="16384" width="9.1796875" style="94"/>
+    <col min="1" max="1" width="12.42578125" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="94" customWidth="1"/>
+    <col min="5" max="7" width="13.42578125" style="94" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" style="94" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="94" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="94" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" style="94" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="94" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="95"/>
+    <col min="16" max="16" width="9.85546875" style="96" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="94" customWidth="1"/>
+    <col min="18" max="20" width="12.42578125" style="94" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="94" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="94" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="94" customWidth="1"/>
+    <col min="26" max="28" width="7.85546875" style="94" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4920,10 +4944,10 @@
         <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>90</v>
@@ -4977,7 +5001,7 @@
         <v>103</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>104</v>
@@ -4989,7 +5013,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="94">
         <v>1</v>
       </c>
@@ -5017,7 +5041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="94">
         <v>2</v>
       </c>
@@ -5045,7 +5069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="94">
         <v>3</v>
       </c>
@@ -5073,7 +5097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="94">
         <v>4</v>
       </c>
@@ -5101,7 +5125,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="94">
         <v>5</v>
       </c>
@@ -5129,7 +5153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="94">
         <v>6</v>
       </c>
@@ -5157,7 +5181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="94">
         <v>7</v>
       </c>
@@ -5185,7 +5209,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="94">
         <v>8</v>
       </c>
@@ -5213,7 +5237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="94">
         <v>9</v>
       </c>
@@ -5241,7 +5265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="94">
         <v>10</v>
       </c>
@@ -5269,7 +5293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="94">
         <v>11</v>
       </c>
@@ -5297,7 +5321,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="94">
         <v>12</v>
       </c>
@@ -5325,7 +5349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="94">
         <v>13</v>
       </c>
@@ -5353,7 +5377,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>14</v>
       </c>
@@ -5381,7 +5405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="94">
         <v>15</v>
       </c>
@@ -5409,7 +5433,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="94">
         <v>16</v>
       </c>
@@ -5437,7 +5461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="94">
         <v>17</v>
       </c>
@@ -5465,7 +5489,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="94">
         <v>18</v>
       </c>
@@ -5493,7 +5517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="94">
         <v>19</v>
       </c>
@@ -5521,7 +5545,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="94">
         <v>20</v>
       </c>
@@ -5549,7 +5573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>21</v>
       </c>
@@ -5577,7 +5601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="94">
         <v>22</v>
       </c>
@@ -5605,7 +5629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="94">
         <v>23</v>
       </c>
@@ -5633,7 +5657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="94">
         <v>24</v>
       </c>
@@ -5661,7 +5685,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>25</v>
       </c>
@@ -5689,7 +5713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="94">
         <v>26</v>
       </c>
@@ -5717,7 +5741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="94">
         <v>27</v>
       </c>
@@ -5745,7 +5769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="94">
         <v>28</v>
       </c>
@@ -5773,7 +5797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="94">
         <v>29</v>
       </c>
@@ -5801,7 +5825,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="94">
         <v>30</v>
       </c>
@@ -5829,7 +5853,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="94">
         <v>31</v>
       </c>
@@ -5857,7 +5881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>32</v>
       </c>
@@ -5885,7 +5909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="94">
         <v>33</v>
       </c>
@@ -5913,7 +5937,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
         <v>34</v>
       </c>
@@ -5941,7 +5965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="94">
         <v>35</v>
       </c>
@@ -5969,7 +5993,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>36</v>
       </c>
@@ -5997,7 +6021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="94">
         <v>37</v>
       </c>
@@ -6025,7 +6049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="94">
         <v>38</v>
       </c>
@@ -6053,7 +6077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="94">
         <v>39</v>
       </c>
@@ -6081,7 +6105,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="94">
         <v>40</v>
       </c>
@@ -6109,7 +6133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="94">
         <v>41</v>
       </c>
@@ -6137,7 +6161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="94">
         <v>42</v>
       </c>
@@ -6165,7 +6189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>43</v>
       </c>
@@ -6193,7 +6217,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="94">
         <v>44</v>
       </c>
@@ -6221,7 +6245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="94">
         <v>45</v>
       </c>
@@ -6249,7 +6273,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="94">
         <v>46</v>
       </c>
@@ -6277,7 +6301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="94">
         <v>47</v>
       </c>
@@ -6305,7 +6329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="94">
         <v>48</v>
       </c>
@@ -6333,7 +6357,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>49</v>
       </c>
@@ -6361,7 +6385,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="94">
         <v>50</v>
       </c>
@@ -6389,7 +6413,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="94">
         <v>51</v>
       </c>
@@ -6417,7 +6441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="94">
         <v>52</v>
       </c>
@@ -6445,7 +6469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="94">
         <v>53</v>
       </c>
@@ -6473,7 +6497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="94">
         <v>54</v>
       </c>
@@ -6501,7 +6525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>55</v>
       </c>
@@ -6529,7 +6553,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="94">
         <v>56</v>
       </c>
@@ -6557,7 +6581,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="94">
         <v>57</v>
       </c>
@@ -6585,7 +6609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="94">
         <v>58</v>
       </c>
@@ -6613,7 +6637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="94">
         <v>59</v>
       </c>
@@ -6641,7 +6665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="94">
         <v>60</v>
       </c>
@@ -6669,7 +6693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="94">
         <v>61</v>
       </c>
@@ -6697,7 +6721,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="94">
         <v>62</v>
       </c>
@@ -6725,7 +6749,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>63</v>
       </c>
@@ -6753,7 +6777,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="94">
         <v>64</v>
       </c>
@@ -6781,7 +6805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="94">
         <v>65</v>
       </c>
@@ -6809,7 +6833,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>66</v>
       </c>
@@ -6837,7 +6861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="94">
         <v>67</v>
       </c>
@@ -6865,7 +6889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="94">
         <v>68</v>
       </c>
@@ -6893,7 +6917,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="94">
         <v>69</v>
       </c>
@@ -6921,7 +6945,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="94">
         <v>70</v>
       </c>
@@ -6949,7 +6973,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="94">
         <v>71</v>
       </c>
@@ -6977,7 +7001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="94">
         <v>72</v>
       </c>
@@ -7005,7 +7029,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="94">
         <v>73</v>
       </c>
@@ -7033,7 +7057,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="94">
         <v>74</v>
       </c>
@@ -7061,7 +7085,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="94">
         <v>75</v>
       </c>
@@ -7089,7 +7113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="94">
         <v>76</v>
       </c>
@@ -7117,7 +7141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="94">
         <v>77</v>
       </c>
@@ -7145,7 +7169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="94">
         <v>78</v>
       </c>
@@ -7173,7 +7197,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="94">
         <v>79</v>
       </c>
@@ -7201,7 +7225,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="94">
         <v>80</v>
       </c>
@@ -7229,7 +7253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="94">
         <v>81</v>
       </c>
@@ -7257,7 +7281,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="94">
         <v>82</v>
       </c>
@@ -7285,7 +7309,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="94">
         <v>83</v>
       </c>
@@ -7313,7 +7337,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="94">
         <v>84</v>
       </c>
@@ -7341,7 +7365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="94">
         <v>85</v>
       </c>
@@ -7369,7 +7393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="94">
         <v>86</v>
       </c>
@@ -7397,7 +7421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="94">
         <v>87</v>
       </c>
@@ -7425,7 +7449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="94">
         <v>88</v>
       </c>
@@ -7453,7 +7477,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="94">
         <v>89</v>
       </c>
@@ -7481,7 +7505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="94">
         <v>90</v>
       </c>
@@ -7509,7 +7533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="94">
         <v>91</v>
       </c>
@@ -7537,7 +7561,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="94">
         <v>92</v>
       </c>
@@ -7565,7 +7589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="94">
         <v>93</v>
       </c>
@@ -7593,7 +7617,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="94">
         <v>94</v>
       </c>
@@ -7621,7 +7645,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="94">
         <v>95</v>
       </c>
@@ -7649,7 +7673,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="94">
         <v>96</v>
       </c>
@@ -7677,7 +7701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB98" s="97"/>
     </row>
   </sheetData>
@@ -7724,218 +7748,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE895A9B-1F34-4976-B120-D3EE7AF75A58}">
-  <dimension ref="A1:AK141"/>
+  <dimension ref="A1:AK140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P88" sqref="P88:Q88"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="14" customWidth="1"/>
     <col min="8" max="8" width="9" style="14" customWidth="1"/>
-    <col min="9" max="10" width="8.453125" style="14" customWidth="1"/>
+    <col min="9" max="10" width="8.42578125" style="14" customWidth="1"/>
     <col min="11" max="11" width="9" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="14" customWidth="1"/>
-    <col min="13" max="14" width="8.54296875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" style="14"/>
-    <col min="16" max="16" width="8.1796875" style="14" customWidth="1"/>
-    <col min="17" max="17" width="5.54296875" style="14" customWidth="1"/>
-    <col min="18" max="18" width="5.81640625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="5.453125" style="14" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="14" customWidth="1"/>
-    <col min="21" max="22" width="5.453125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" style="14" customWidth="1"/>
-    <col min="24" max="25" width="5.81640625" style="14" customWidth="1"/>
-    <col min="26" max="27" width="6.453125" style="14" customWidth="1"/>
-    <col min="28" max="28" width="6.1796875" style="14" customWidth="1"/>
-    <col min="29" max="29" width="5.81640625" style="14" customWidth="1"/>
-    <col min="30" max="31" width="8.81640625" style="14"/>
-    <col min="32" max="32" width="9.453125" style="14" customWidth="1"/>
-    <col min="33" max="16384" width="8.81640625" style="14"/>
+    <col min="12" max="12" width="10.42578125" style="14" customWidth="1"/>
+    <col min="13" max="14" width="8.5703125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="14"/>
+    <col min="16" max="16" width="8.140625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="14" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="14" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="14" customWidth="1"/>
+    <col min="21" max="22" width="5.42578125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" style="14" customWidth="1"/>
+    <col min="24" max="25" width="5.85546875" style="14" customWidth="1"/>
+    <col min="26" max="27" width="6.42578125" style="14" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" style="14" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" style="14" customWidth="1"/>
+    <col min="30" max="31" width="8.85546875" style="14"/>
+    <col min="32" max="32" width="9.42578125" style="14" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15"/>
-      <c r="C1" s="175" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
+      <c r="C1" s="177" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="176" t="s">
+    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="168" t="s">
+      <c r="O2" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-    </row>
-    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="178" t="s">
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+    </row>
+    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-    </row>
-    <row r="4" spans="1:37" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="169" t="s">
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+    </row>
+    <row r="4" spans="1:37" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-    </row>
-    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="169" t="s">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170"/>
+    </row>
+    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="170"/>
       <c r="AK5" s="18"/>
     </row>
-    <row r="6" spans="1:37" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="169" t="s">
+    <row r="6" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
       <c r="K6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="17"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
       <c r="AK6" s="18"/>
     </row>
-    <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="169" t="s">
+    <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="171" t="s">
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="172"/>
+      <c r="K7" s="174"/>
       <c r="L7" s="17"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170"/>
       <c r="AK7" s="18"/>
     </row>
-    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="169" t="s">
+    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="171" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
       <c r="K8" s="57"/>
       <c r="L8" s="58" t="s">
         <v>113</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
-      <c r="R8" s="168"/>
+        <v>159</v>
+      </c>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
       <c r="AK8" s="18"/>
     </row>
-    <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="151" t="s">
+    <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
       <c r="K9" s="60"/>
       <c r="L9" s="61" t="s">
         <v>115</v>
@@ -7943,23 +7967,23 @@
       <c r="M9" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168"/>
-    </row>
-    <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="151" t="s">
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+    </row>
+    <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
       <c r="K10" s="60"/>
       <c r="L10" s="58" t="s">
         <v>116</v>
@@ -7967,23 +7991,23 @@
       <c r="M10" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-    </row>
-    <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="155" t="s">
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+    </row>
+    <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
       <c r="K11" s="60"/>
       <c r="L11" s="63" t="s">
         <v>117</v>
@@ -7992,13 +8016,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="151" t="s">
+    <row r="12" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
       <c r="E12" s="65"/>
       <c r="F12" s="19" t="b">
         <f>MOD(E12,8)=0</f>
@@ -8014,23 +8038,21 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="151" t="s">
+    <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="66">
-        <v>12</v>
-      </c>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="19" t="b">
         <f>MOD(E13,12)=0</f>
         <v>1</v>
       </c>
       <c r="G13" s="19">
         <f>ROUNDDOWN((E13/12),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="19">
         <f>E13-G13*12</f>
@@ -8038,31 +8060,31 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="160" t="s">
+    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="162"/>
-    </row>
-    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="164"/>
+    </row>
+    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" s="23" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="C16" s="24">
         <v>1</v>
@@ -8102,7 +8124,7 @@
       </c>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="25" t="s">
         <v>1</v>
@@ -8157,7 +8179,7 @@
       </c>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="25" t="s">
         <v>2</v>
@@ -8212,7 +8234,7 @@
       </c>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="25" t="s">
         <v>3</v>
@@ -8267,7 +8289,7 @@
       </c>
       <c r="O19" s="28"/>
     </row>
-    <row r="20" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="25" t="s">
         <v>4</v>
@@ -8322,7 +8344,7 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="25" t="s">
         <v>5</v>
@@ -8377,7 +8399,7 @@
       </c>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="25" t="s">
         <v>6</v>
@@ -8432,7 +8454,7 @@
       </c>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="25" t="s">
         <v>7</v>
@@ -8487,7 +8509,7 @@
       </c>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="25" t="s">
         <v>8</v>
@@ -8542,7 +8564,7 @@
       </c>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>61</v>
       </c>
@@ -8598,7 +8620,7 @@
       <c r="AB25" s="54"/>
       <c r="AC25" s="28"/>
     </row>
-    <row r="26" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>1</v>
       </c>
@@ -8665,7 +8687,7 @@
       <c r="AB26" s="54"/>
       <c r="AC26" s="28"/>
     </row>
-    <row r="27" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
         <v>2</v>
       </c>
@@ -8732,7 +8754,7 @@
       <c r="AB27" s="54"/>
       <c r="AC27" s="28"/>
     </row>
-    <row r="28" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8821,7 @@
       <c r="AB28" s="54"/>
       <c r="AC28" s="28"/>
     </row>
-    <row r="29" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
         <v>4</v>
       </c>
@@ -8866,7 +8888,7 @@
       <c r="AB29" s="54"/>
       <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
@@ -8933,7 +8955,7 @@
       <c r="AB30" s="54"/>
       <c r="AC30" s="28"/>
     </row>
-    <row r="31" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
         <v>6</v>
       </c>
@@ -9000,7 +9022,7 @@
       <c r="AB31" s="54"/>
       <c r="AC31" s="28"/>
     </row>
-    <row r="32" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
         <v>7</v>
       </c>
@@ -9067,7 +9089,7 @@
       <c r="AB32" s="54"/>
       <c r="AC32" s="28"/>
     </row>
-    <row r="33" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
         <v>8</v>
       </c>
@@ -9134,7 +9156,7 @@
       <c r="AB33" s="54"/>
       <c r="AC33" s="28"/>
     </row>
-    <row r="34" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>119</v>
       </c>
@@ -9190,7 +9212,7 @@
       <c r="AB34" s="54"/>
       <c r="AC34" s="28"/>
     </row>
-    <row r="35" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
         <v>1</v>
       </c>
@@ -9257,7 +9279,7 @@
       <c r="AB35" s="54"/>
       <c r="AC35" s="28"/>
     </row>
-    <row r="36" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
         <v>2</v>
       </c>
@@ -9324,7 +9346,7 @@
       <c r="AB36" s="54"/>
       <c r="AC36" s="28"/>
     </row>
-    <row r="37" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
         <v>3</v>
       </c>
@@ -9391,7 +9413,7 @@
       <c r="AB37" s="54"/>
       <c r="AC37" s="28"/>
     </row>
-    <row r="38" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="25" t="s">
         <v>4</v>
       </c>
@@ -9458,7 +9480,7 @@
       <c r="AB38" s="54"/>
       <c r="AC38" s="28"/>
     </row>
-    <row r="39" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -9525,7 +9547,7 @@
       <c r="AB39" s="54"/>
       <c r="AC39" s="28"/>
     </row>
-    <row r="40" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -9592,7 +9614,7 @@
       <c r="AB40" s="54"/>
       <c r="AC40" s="28"/>
     </row>
-    <row r="41" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
         <v>7</v>
       </c>
@@ -9659,7 +9681,7 @@
       <c r="AB41" s="54"/>
       <c r="AC41" s="28"/>
     </row>
-    <row r="42" spans="1:29" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:29" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="s">
         <v>8</v>
       </c>
@@ -9726,41 +9748,41 @@
       <c r="AB42" s="54"/>
       <c r="AC42" s="28"/>
     </row>
-    <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="164"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="165"/>
-    </row>
-    <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="167"/>
+    </row>
+    <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="13" t="str">
         <f>IF(ISNUMBER($E$12),IF($M$9="Yes",IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E13*D46/8*1.1)," µL of FS1 into each well of column 1 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D46*1.1)," µL of FS1 into first ",H12," wells and ",FIXED((G12)*D46*1.1)," µL into the other wells of MM plate column 1")), "Skip" ), IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*D46/12*1.1)," µL of FS1 into each well of row A of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*D46*1.1)," µL of FS1 into first ",$H$13," wells and ",FIXED(($G$13)*D46*1.1)," µL into the other wells of MM plate row A")))</f>
-        <v>Pipet 5.50 µL of FS1 into each well of row A of MM plate</v>
+        <v>Pipet 0.00 µL of FS1 into each well of row A of MM plate</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="N44" s="166" t="str">
+      <c r="N44" s="168" t="str">
         <f>IF(M9="No","Skip this part",IF($M$9=$M$10,"Skip this only for low Input samples", " "))</f>
         <v>Skip this only for low Input samples</v>
       </c>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="13" t="str">
         <f>IF($M$9="Yes", "Mix:", "Skip")</f>
@@ -9775,11 +9797,11 @@
       <c r="E45" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="167"/>
+      <c r="N45" s="169"/>
       <c r="O45" s="28"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:29" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="13"/>
       <c r="C46" s="32" t="s">
@@ -9791,10 +9813,10 @@
       <c r="E46" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="N46" s="167"/>
+      <c r="N46" s="169"/>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:29" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -9807,10 +9829,10 @@
       <c r="F47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="167"/>
+      <c r="N47" s="169"/>
       <c r="O47" s="28"/>
     </row>
-    <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="13" t="str">
         <f>IF($M$9="Yes", "Incubate:", "Skip")</f>
@@ -9823,10 +9845,10 @@
       <c r="F48" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="N48" s="167"/>
+      <c r="N48" s="169"/>
       <c r="O48" s="28"/>
     </row>
-    <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="13"/>
       <c r="D49" s="38" t="s">
@@ -9836,30 +9858,30 @@
         <v>14</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="N49" s="167"/>
+      <c r="N49" s="169"/>
       <c r="O49" s="28"/>
     </row>
-    <row r="50" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
-      <c r="B50" s="173" t="str">
+      <c r="B50" s="175" t="str">
         <f>IF(ISNUMBER($E$13),IF($F$13=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED($E$13*D54/12*1.1)," µL of F into each well of row B of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(($G$13+1)*D54*1.1)," µL of F into first ",$H$13," wells and ",FIXED(($G$13)*D54*1.1)," µL into the other wells of MM plate row B")),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(E12*D54/8*1.1)," µL into each well of column 2 of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED((G12+1)*D54*1.1)," µL into first ",H12," wells and ",FIXED((G12)*D54*1.1)," µL into the other wells of MM plate column 2")))</f>
-        <v>Prepare Mastermix (F) according to the following table and pipet 11.00 µL of F into each well of row B of MM plate</v>
-      </c>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
-      <c r="E50" s="174"/>
-      <c r="F50" s="174"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="174"/>
-      <c r="K50" s="174"/>
-      <c r="L50" s="174"/>
-      <c r="M50" s="174"/>
-      <c r="N50" s="174"/>
-      <c r="O50" s="174"/>
-    </row>
-    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Prepare Mastermix (F) according to the following table and pipet 0.00 µL into each well of column 2 of MM plate</v>
+      </c>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
+      <c r="L50" s="176"/>
+      <c r="M50" s="176"/>
+      <c r="N50" s="176"/>
+      <c r="O50" s="176"/>
+    </row>
+    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -9868,22 +9890,22 @@
       </c>
       <c r="E51" s="55" t="str">
         <f>IF(ISNUMBER($E$13),CONCATENATE(" Volume for ",$E$13," samples"),CONCATENATE(" Volume for ",$E$12," samples"))</f>
-        <v xml:space="preserve"> Volume for 12 samples</v>
-      </c>
-      <c r="I51" s="148" t="s">
+        <v xml:space="preserve"> Volume for  samples</v>
+      </c>
+      <c r="I51" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="149"/>
+      <c r="J51" s="151"/>
       <c r="K51" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="L51" s="150" t="s">
-        <v>149</v>
-      </c>
-      <c r="M51" s="150"/>
+      <c r="L51" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="M51" s="152"/>
       <c r="N51" s="71"/>
     </row>
-    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="C52" s="29" t="s">
         <v>16</v>
@@ -9893,7 +9915,7 @@
       </c>
       <c r="E52" s="30">
         <f>IF(ISNUMBER($E$13),D52*$E$13*1.1,D52*$E$12*1.1)</f>
-        <v>125.4</v>
+        <v>0</v>
       </c>
       <c r="F52" s="56" t="s">
         <v>49</v>
@@ -9906,16 +9928,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "5","")</f>
         <v>5</v>
       </c>
-      <c r="L52" s="133">
+      <c r="L52" s="135">
         <f>IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K52*$E$13*1.1,""),K52*$E$12*1.1)</f>
-        <v>66</v>
-      </c>
-      <c r="M52" s="134"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="136"/>
       <c r="N52" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="C53" s="32" t="s">
         <v>9</v>
@@ -9925,7 +9947,7 @@
       </c>
       <c r="E53" s="33">
         <f>IF(ISNUMBER($E$13),D53*$E$13*1.1,D53*$E$12*1.1)</f>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>49</v>
@@ -9938,16 +9960,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "9.5","")</f>
         <v>9.5</v>
       </c>
-      <c r="L53" s="133">
+      <c r="L53" s="135">
         <f t="shared" ref="L53:L54" si="0">IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K53*$E$13*1.1,""),K53*$E$12*1.1)</f>
-        <v>125.4</v>
-      </c>
-      <c r="M53" s="134"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="136"/>
       <c r="N53" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="C54" s="35"/>
       <c r="D54" s="36">
@@ -9955,7 +9977,7 @@
       </c>
       <c r="E54" s="40">
         <f>E52+E53</f>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="F54" s="68" t="s">
         <v>49</v>
@@ -9971,16 +9993,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "0.5","")</f>
         <v>0.5</v>
       </c>
-      <c r="L54" s="133">
+      <c r="L54" s="135">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="M54" s="134"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="136"/>
       <c r="N54" s="77" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="13" t="s">
         <v>51</v>
@@ -9993,22 +10015,22 @@
         <f>SUM(K52:K54)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="135">
+      <c r="L55" s="137">
         <f>SUM(L52:L54)</f>
-        <v>198</v>
-      </c>
-      <c r="M55" s="136"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="138"/>
       <c r="N55" s="80" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="42" t="s">
         <v>48</v>
@@ -10022,7 +10044,7 @@
         <v>Incubate the low/ultralow input samples for 15 min or 1 hr at 42°C</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="D58" s="38" t="s">
         <v>22</v>
@@ -10031,33 +10053,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
-      <c r="B59" s="137" t="s">
+      <c r="B59" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="138"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
-      <c r="J59" s="138"/>
-      <c r="K59" s="138"/>
-      <c r="L59" s="138"/>
-      <c r="M59" s="138"/>
-      <c r="N59" s="138"/>
-      <c r="O59" s="139"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="140"/>
+      <c r="O59" s="141"/>
+    </row>
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44"/>
       <c r="B60" s="13" t="str">
-        <f>IF(ISNUMBER($E$13),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D62/8*1.1)," µL of RS into each well of row C of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D62*1.1)," µL of RS into first ",H13," wells and ",FIXED((G13)*D62*1.1)," µL into the other wells of MM plate row C")),IF($F$12=TRUE,CONCATENATE("Pipet ",FIXED($E$12*D62/8*1.1)," µL of RS into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$12+1)*D62*1.1)," µL of RS into first ",H12," wells and ",FIXED(($G$12)*D62*1.1)," µL into the other wells of MM plate column 3")))</f>
-        <v>Pipet 8.25 µL of RS into each well of row C of MM plate</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <f>IF(ISNUMBER($E$13),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*D62/12*1.1)," µL of RS into each well of row C of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D62*1.1)," µL of RS into first ",H13," wells and ",FIXED((G13)*D62*1.1)," µL into the other wells of MM plate row C")),IF($F$12=TRUE,CONCATENATE("Pipet ",FIXED($E$12*D62/8*1.1)," µL of RS into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$12+1)*D62*1.1)," µL of RS into first ",H12," wells and ",FIXED(($G$12)*D62*1.1)," µL into the other wells of MM plate column 3")))</f>
+        <v>Pipet 0.00 µL of RS into each well of column 3 of MM plate</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="13" t="s">
         <v>47</v>
@@ -10076,7 +10098,7 @@
         <v>Thaw SS1 at 37°C</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="C62" s="32" t="s">
         <v>21</v>
@@ -10088,7 +10110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="C63" s="35"/>
       <c r="D63" s="36">
@@ -10101,7 +10123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="13" t="s">
         <v>53</v>
@@ -10116,7 +10138,7 @@
         <v>Incubate: 95°C/5min for ULTRALOW</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -10127,26 +10149,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
-      <c r="B66" s="140" t="s">
+      <c r="B66" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="141"/>
-      <c r="I66" s="141"/>
-      <c r="J66" s="141"/>
-      <c r="K66" s="141"/>
-      <c r="L66" s="141"/>
-      <c r="M66" s="141"/>
-      <c r="N66" s="141"/>
-      <c r="O66" s="142"/>
-    </row>
-    <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C66" s="143"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="143"/>
+      <c r="J66" s="143"/>
+      <c r="K66" s="143"/>
+      <c r="L66" s="143"/>
+      <c r="M66" s="143"/>
+      <c r="N66" s="143"/>
+      <c r="O66" s="144"/>
+    </row>
+    <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="53" t="str">
         <f>IF($M$8="Yes", "Thaw USS at 37°C","Thaw SS1 at 37°C")</f>
@@ -10158,14 +10180,14 @@
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
     </row>
-    <row r="68" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="13" t="str">
         <f>IF(ISNUMBER($E$13),IF(M8="No",IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D70/12*1.1)," µL of SS1 into each well of row D of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D70*1.1)," µL of SS1 into first ",H13," wells and ",FIXED((G13)*D70*1.1)," µL into the other wells of MM plate Row D")),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D70/12*1.1)," µL of USS into each well of row D of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D70*1.1)," µL of USS into first ",H13," wells and ",FIXED((G13)*D70*1.1)," µL into the other wells of MM plate row D"))),IF(M8="No",IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E12*D70/8*1.1)," µL of SS1 into each well of column 4 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D70*1.1)," µL of SS1 into first ",H13," wells and ",FIXED((G12)*D70*1.1)," µL into the other wells of MM plate column 4")),IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E12*D70/8*1.1)," µL of USS into each well of column 4 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D70*1.1)," µL of USS into first ",H13," wells and ",FIXED((G12)*D70*1.1)," µL into the other wells of MM plate column 4"))))</f>
-        <v>Pipet 11.00 µL of SS1 into each well of row D of MM plate</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Pipet 0.00 µL of SS1 into each well of column 4 of MM plate</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="30" t="s">
         <v>54</v>
       </c>
@@ -10176,7 +10198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
       <c r="C70" s="32" t="str">
         <f>IF($M$8="Yes", "USS","SS1")</f>
@@ -10189,7 +10211,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="C71" s="35"/>
       <c r="D71" s="36">
@@ -10202,7 +10224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="13" t="s">
         <v>48</v>
@@ -10211,13 +10233,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="D73" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
       <c r="D74" s="43" t="s">
         <v>25</v>
@@ -10226,14 +10248,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="13" t="str">
         <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED(E12*D78/8*1.1)," µL of S into each well of column 5 of MM plate"),CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED((G12+1)*D78*1.1)," µL of S into first ",H12," wells and ",FIXED((G12)*D78*1.1)," µL into the other wells of MM plate column 5")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED(E13*D78/12*1.1)," µL of S into each well of row E of MM plate"),CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED((G13+1)*D78*1.1)," µL of S into first ",H13," wells and ",FIXED((G13)*D78*1.1)," µL into the other wells of MM plate row E")))</f>
-        <v>Prepare Mastermix (S) according to the following table and pipet 5.50 µL of S into each well of row E of MM plate</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>Prepare Mastermix (S) according to the following table and pipet 0.00 µL of S into each well of row E of MM plate</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" s="13" t="s">
         <v>47</v>
@@ -10246,18 +10268,18 @@
       </c>
       <c r="E76" s="31">
         <f>IF(ISNUMBER($E$13),D76*$E$13*1.1,D76*$E$12*1.1)</f>
-        <v>52.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="F76" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I76" s="143" t="s">
+      <c r="I76" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="143"/>
-      <c r="K76" s="143"/>
-    </row>
-    <row r="77" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J76" s="145"/>
+      <c r="K76" s="145"/>
+    </row>
+    <row r="77" spans="1:21" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="32" t="s">
         <v>10</v>
       </c>
@@ -10266,13 +10288,13 @@
       </c>
       <c r="E77" s="34">
         <f>D77*$E$13*1.1</f>
-        <v>13.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="F77" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
       <c r="C78" s="35"/>
       <c r="D78" s="36">
@@ -10280,7 +10302,7 @@
       </c>
       <c r="E78" s="37">
         <f>SUM(E76:E77)</f>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F78" s="85" t="s">
         <v>49</v>
@@ -10289,7 +10311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="13" t="s">
         <v>48</v>
@@ -10297,88 +10319,88 @@
       <c r="D79" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="P79" s="144" t="s">
+      <c r="P79" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="Q79" s="144"/>
-    </row>
-    <row r="80" spans="1:21" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q79" s="146"/>
+    </row>
+    <row r="80" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
-      <c r="B80" s="145" t="s">
+      <c r="B80" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="146"/>
-      <c r="D80" s="146"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="146"/>
-      <c r="H80" s="146"/>
-      <c r="I80" s="146"/>
-      <c r="J80" s="146"/>
-      <c r="K80" s="146"/>
-      <c r="L80" s="146"/>
-      <c r="M80" s="146"/>
-      <c r="N80" s="146"/>
-      <c r="O80" s="147"/>
-      <c r="P80" s="119" t="s">
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="148"/>
+      <c r="H80" s="148"/>
+      <c r="I80" s="148"/>
+      <c r="J80" s="148"/>
+      <c r="K80" s="148"/>
+      <c r="L80" s="148"/>
+      <c r="M80" s="148"/>
+      <c r="N80" s="148"/>
+      <c r="O80" s="149"/>
+      <c r="P80" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="Q80" s="119"/>
-      <c r="R80" s="119" t="s">
+      <c r="Q80" s="121"/>
+      <c r="R80" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="S80" s="119"/>
-      <c r="T80" s="119" t="s">
+      <c r="S80" s="121"/>
+      <c r="T80" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="U80" s="119"/>
-    </row>
-    <row r="81" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U80" s="121"/>
+    </row>
+    <row r="81" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="P81" s="118" t="s">
+      <c r="P81" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="Q81" s="118"/>
-      <c r="R81" s="118">
+      <c r="Q81" s="120"/>
+      <c r="R81" s="120">
         <v>7</v>
       </c>
-      <c r="S81" s="118"/>
-      <c r="T81" s="119"/>
-      <c r="U81" s="119"/>
-    </row>
-    <row r="82" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S81" s="120"/>
+      <c r="T81" s="121"/>
+      <c r="U81" s="121"/>
+    </row>
+    <row r="82" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
-      <c r="B82" s="130" t="s">
+      <c r="B82" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="131"/>
-      <c r="H82" s="131"/>
-      <c r="I82" s="131"/>
-      <c r="J82" s="131"/>
-      <c r="K82" s="131"/>
-      <c r="L82" s="131"/>
-      <c r="M82" s="131"/>
-      <c r="N82" s="131"/>
-      <c r="O82" s="132"/>
-      <c r="P82" s="118" t="s">
+      <c r="C82" s="133"/>
+      <c r="D82" s="133"/>
+      <c r="E82" s="133"/>
+      <c r="F82" s="133"/>
+      <c r="G82" s="133"/>
+      <c r="H82" s="133"/>
+      <c r="I82" s="133"/>
+      <c r="J82" s="133"/>
+      <c r="K82" s="133"/>
+      <c r="L82" s="133"/>
+      <c r="M82" s="133"/>
+      <c r="N82" s="133"/>
+      <c r="O82" s="134"/>
+      <c r="P82" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="Q82" s="118"/>
-      <c r="R82" s="118">
+      <c r="Q82" s="120"/>
+      <c r="R82" s="120">
         <v>1</v>
       </c>
-      <c r="S82" s="118"/>
-      <c r="T82" s="119"/>
-      <c r="U82" s="119"/>
-    </row>
-    <row r="83" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S82" s="120"/>
+      <c r="T82" s="121"/>
+      <c r="U82" s="121"/>
+    </row>
+    <row r="83" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
       <c r="B83" s="14" t="s">
         <v>128</v>
@@ -10387,125 +10409,125 @@
         <v>62</v>
       </c>
       <c r="M83" s="48"/>
-      <c r="P83" s="118" t="s">
+      <c r="P83" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="Q83" s="118"/>
-      <c r="R83" s="118">
-        <v>5</v>
-      </c>
-      <c r="S83" s="118"/>
-      <c r="T83" s="119"/>
-      <c r="U83" s="119"/>
-    </row>
-    <row r="84" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q83" s="120"/>
+      <c r="R83" s="120">
+        <v>5</v>
+      </c>
+      <c r="S83" s="120"/>
+      <c r="T83" s="121"/>
+      <c r="U83" s="121"/>
+    </row>
+    <row r="84" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
-      <c r="B84" s="126" t="s">
+      <c r="B84" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
-      <c r="H84" s="127"/>
-      <c r="I84" s="127"/>
-      <c r="J84" s="127"/>
-      <c r="K84" s="127"/>
-      <c r="L84" s="127"/>
-      <c r="M84" s="127"/>
-      <c r="N84" s="127"/>
-      <c r="O84" s="128"/>
-      <c r="P84" s="129" t="s">
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="129"/>
+      <c r="G84" s="129"/>
+      <c r="H84" s="129"/>
+      <c r="I84" s="129"/>
+      <c r="J84" s="129"/>
+      <c r="K84" s="129"/>
+      <c r="L84" s="129"/>
+      <c r="M84" s="129"/>
+      <c r="N84" s="129"/>
+      <c r="O84" s="130"/>
+      <c r="P84" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="Q84" s="118"/>
-      <c r="R84" s="118">
-        <v>5</v>
-      </c>
-      <c r="S84" s="118"/>
-      <c r="T84" s="119"/>
-      <c r="U84" s="119"/>
-    </row>
-    <row r="85" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q84" s="120"/>
+      <c r="R84" s="120">
+        <v>5</v>
+      </c>
+      <c r="S84" s="120"/>
+      <c r="T84" s="121"/>
+      <c r="U84" s="121"/>
+    </row>
+    <row r="85" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
-      <c r="B85" s="123" t="str">
-        <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E12*(D89+D90)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G12+1)*(D89+D90)*1.1)," µL of P into first ",H12," wells and ",FIXED((G12)*(D89+D90)*1.1)," µL into the other wells of MM plate column 6")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E13*(D89+D90)/8*1.1)," µL of P into each well of row F of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G13+1)*(D89+D90)*1.1)," µL of P into first ",H13," wells and ",FIXED((G13)*(D89+D90)*1.1)," µL into the other wells of MM plate row F")) )</f>
-        <v>Prepare Mastermix (P) according to the following table and pipet 6.60 µL of P into each well of row F of MM plate</v>
-      </c>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="124"/>
-      <c r="I85" s="124"/>
-      <c r="J85" s="124"/>
-      <c r="K85" s="124"/>
-      <c r="L85" s="124"/>
-      <c r="M85" s="124"/>
-      <c r="N85" s="124"/>
-      <c r="O85" s="125"/>
-      <c r="P85" s="120" t="s">
+      <c r="B85" s="125" t="str">
+        <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E12*(D89+D90)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G12+1)*(D89+D90)*1.1)," µL of P into first ",H12," wells and ",FIXED((G12)*(D89+D90)*1.1)," µL into the other wells of MM plate column 6")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E13*(D89+D90)/12*1.1)," µL of P into each well of row F of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G13+1)*(D89+D90)*1.1)," µL of P into first ",H13," wells and ",FIXED((G13)*(D89+D90)*1.1)," µL into the other wells of MM plate row F")) )</f>
+        <v>Prepare Mastermix (P) according to the following table and pipet 0.00 µL of P into each well of row F of MM plate</v>
+      </c>
+      <c r="C85" s="126"/>
+      <c r="D85" s="126"/>
+      <c r="E85" s="126"/>
+      <c r="F85" s="126"/>
+      <c r="G85" s="126"/>
+      <c r="H85" s="126"/>
+      <c r="I85" s="126"/>
+      <c r="J85" s="126"/>
+      <c r="K85" s="126"/>
+      <c r="L85" s="126"/>
+      <c r="M85" s="126"/>
+      <c r="N85" s="126"/>
+      <c r="O85" s="127"/>
+      <c r="P85" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="Q85" s="120"/>
-      <c r="R85" s="118">
+      <c r="Q85" s="122"/>
+      <c r="R85" s="120">
         <v>0.03</v>
       </c>
-      <c r="S85" s="118"/>
-      <c r="T85" s="119"/>
-      <c r="U85" s="119"/>
-    </row>
-    <row r="86" spans="1:28" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S85" s="120"/>
+      <c r="T85" s="121"/>
+      <c r="U85" s="121"/>
+    </row>
+    <row r="86" spans="1:28" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
-      <c r="B86" s="121" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="122"/>
-      <c r="H86" s="122"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="122"/>
-      <c r="L86" s="122"/>
-      <c r="M86" s="122"/>
-      <c r="N86" s="122"/>
-      <c r="O86" s="122"/>
-      <c r="P86" s="120" t="s">
+      <c r="B86" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+      <c r="J86" s="124"/>
+      <c r="K86" s="124"/>
+      <c r="L86" s="124"/>
+      <c r="M86" s="124"/>
+      <c r="N86" s="124"/>
+      <c r="O86" s="124"/>
+      <c r="P86" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="Q86" s="120"/>
-      <c r="R86" s="118">
+      <c r="Q86" s="122"/>
+      <c r="R86" s="120">
         <v>15.27</v>
       </c>
-      <c r="S86" s="118"/>
-      <c r="T86" s="119"/>
-      <c r="U86" s="119"/>
-    </row>
-    <row r="87" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S86" s="120"/>
+      <c r="T86" s="121"/>
+      <c r="U86" s="121"/>
+    </row>
+    <row r="87" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="86"/>
       <c r="E87" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P87" s="118" t="s">
+      <c r="P87" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="Q87" s="118"/>
-      <c r="R87" s="118">
+      <c r="Q87" s="120"/>
+      <c r="R87" s="120">
         <v>1.7</v>
       </c>
-      <c r="S87" s="118"/>
-      <c r="T87" s="119" t="s">
+      <c r="S87" s="120"/>
+      <c r="T87" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="U87" s="119"/>
-    </row>
-    <row r="88" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U87" s="121"/>
+    </row>
+    <row r="88" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="C88" s="49" t="s">
         <v>30</v>
@@ -10517,18 +10539,18 @@
       <c r="F88" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="P88" s="118" t="s">
+      <c r="P88" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="Q88" s="118"/>
-      <c r="R88" s="118">
+      <c r="Q88" s="120"/>
+      <c r="R88" s="120">
         <v>33.299999999999997</v>
       </c>
-      <c r="S88" s="118"/>
-      <c r="T88" s="119"/>
-      <c r="U88" s="119"/>
-    </row>
-    <row r="89" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S88" s="120"/>
+      <c r="T88" s="121"/>
+      <c r="U88" s="121"/>
+    </row>
+    <row r="89" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="C89" s="29" t="s">
         <v>37</v>
@@ -10538,13 +10560,13 @@
       </c>
       <c r="E89" s="50">
         <f>D89*E13*1.1</f>
-        <v>46.2</v>
+        <v>0</v>
       </c>
       <c r="F89" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="C90" s="29" t="s">
         <v>38</v>
@@ -10554,13 +10576,13 @@
       </c>
       <c r="E90" s="30">
         <f>D90*E13*1.1</f>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F90" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:28" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="22"/>
       <c r="C91" s="32" t="s">
         <v>39</v>
@@ -10573,7 +10595,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22"/>
       <c r="C92" s="35"/>
       <c r="D92" s="36">
@@ -10582,13 +10604,13 @@
       </c>
       <c r="E92" s="40">
         <f>SUM(E89:E90)</f>
-        <v>52.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="F92" s="85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="51"/>
       <c r="B93" s="42" t="s">
         <v>60</v>
@@ -10612,7 +10634,7 @@
       <c r="AA93"/>
       <c r="AB93"/>
     </row>
-    <row r="94" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="24">
@@ -10666,7 +10688,7 @@
       <c r="AA94"/>
       <c r="AB94"/>
     </row>
-    <row r="95" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="25" t="s">
         <v>1</v>
@@ -10734,7 +10756,7 @@
       <c r="AA95"/>
       <c r="AB95"/>
     </row>
-    <row r="96" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="25" t="s">
         <v>2</v>
       </c>
@@ -10801,7 +10823,7 @@
       <c r="AA96"/>
       <c r="AB96"/>
     </row>
-    <row r="97" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
         <v>3</v>
       </c>
@@ -10868,7 +10890,7 @@
       <c r="AA97"/>
       <c r="AB97"/>
     </row>
-    <row r="98" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
         <v>4</v>
       </c>
@@ -10935,7 +10957,7 @@
       <c r="AA98"/>
       <c r="AB98"/>
     </row>
-    <row r="99" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="25" t="s">
         <v>5</v>
       </c>
@@ -11002,7 +11024,7 @@
       <c r="AA99"/>
       <c r="AB99"/>
     </row>
-    <row r="100" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
         <v>6</v>
       </c>
@@ -11069,7 +11091,7 @@
       <c r="AA100"/>
       <c r="AB100"/>
     </row>
-    <row r="101" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="25" t="s">
         <v>7</v>
       </c>
@@ -11136,7 +11158,7 @@
       <c r="AA101"/>
       <c r="AB101"/>
     </row>
-    <row r="102" spans="1:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="25" t="s">
         <v>8</v>
       </c>
@@ -11203,7 +11225,7 @@
       <c r="AA102"/>
       <c r="AB102"/>
     </row>
-    <row r="103" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="21"/>
       <c r="B103" s="13" t="s">
         <v>58</v>
@@ -11226,7 +11248,7 @@
       <c r="AA103"/>
       <c r="AB103"/>
     </row>
-    <row r="104" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="F104" s="87" t="s">
         <v>40</v>
@@ -11236,32 +11258,32 @@
         <v>___cycles</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="F105" s="88" t="s">
         <v>136</v>
       </c>
       <c r="G105" s="102"/>
     </row>
-    <row r="106" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="F106" s="89" t="s">
         <v>41</v>
       </c>
       <c r="G106" s="103"/>
     </row>
-    <row r="107" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="F107" s="38" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:28" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F108" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109" s="104" t="s">
         <v>138</v>
@@ -11280,7 +11302,7 @@
       <c r="N109" s="105"/>
       <c r="O109" s="106"/>
     </row>
-    <row r="110" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="13" t="s">
         <v>139</v>
@@ -11288,7 +11310,7 @@
       <c r="F110" s="43"/>
       <c r="K110" s="90"/>
     </row>
-    <row r="111" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="91"/>
       <c r="B111" s="107" t="s">
         <v>63</v>
@@ -11307,12 +11329,12 @@
       <c r="N111" s="108"/>
       <c r="O111" s="109"/>
     </row>
-    <row r="112" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="23"/>
       <c r="C113" s="24">
         <v>1</v>
@@ -11351,7 +11373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="25" t="s">
         <v>1</v>
       </c>
@@ -11404,7 +11426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="25" t="s">
         <v>2</v>
       </c>
@@ -11457,7 +11479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="25" t="s">
         <v>3</v>
       </c>
@@ -11510,7 +11532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="25" t="s">
         <v>4</v>
       </c>
@@ -11563,7 +11585,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="25" t="s">
         <v>5</v>
       </c>
@@ -11616,7 +11638,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="25" t="s">
         <v>6</v>
       </c>
@@ -11669,7 +11691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="25" t="s">
         <v>7</v>
       </c>
@@ -11722,7 +11744,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="25" t="s">
         <v>8</v>
       </c>
@@ -11775,7 +11797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="44"/>
       <c r="B122" s="92" t="s">
         <v>140</v>
@@ -11783,250 +11805,261 @@
       <c r="C122" s="13"/>
       <c r="E122" s="93"/>
     </row>
-    <row r="123" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="44"/>
       <c r="B123" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="13"/>
       <c r="C124" s="92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D124" s="92"/>
       <c r="E124" s="92"/>
       <c r="F124" s="92"/>
       <c r="G124" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="13"/>
       <c r="C125" s="92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="92"/>
       <c r="F125" s="92"/>
       <c r="G125" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="42"/>
+      <c r="C126" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" s="100"/>
+      <c r="E126" s="100"/>
+      <c r="F126" s="100"/>
+      <c r="G126" s="100"/>
+      <c r="H126" s="100"/>
+      <c r="I126" s="100"/>
+      <c r="J126" s="100"/>
+      <c r="K126" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="L126" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="M126" s="110"/>
+      <c r="N126" s="110"/>
+      <c r="O126" s="110"/>
+    </row>
+    <row r="127" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="42"/>
+      <c r="C127" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127" s="100"/>
+      <c r="E127" s="100"/>
+      <c r="F127" s="100"/>
+      <c r="G127" s="100"/>
+      <c r="H127" s="100"/>
+      <c r="I127" s="100"/>
+      <c r="J127" s="100"/>
+      <c r="K127" s="30">
+        <v>191.96</v>
+      </c>
+      <c r="L127" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="M127" s="111"/>
+      <c r="N127" s="111"/>
+      <c r="O127" s="111"/>
+    </row>
+    <row r="128" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="42"/>
+      <c r="C128" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128" s="100"/>
+      <c r="E128" s="100"/>
+      <c r="F128" s="100"/>
+      <c r="G128" s="100"/>
+      <c r="H128" s="100"/>
+      <c r="I128" s="100"/>
+      <c r="J128" s="100"/>
+      <c r="K128" s="30">
+        <v>194.96</v>
+      </c>
+      <c r="L128" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="M128" s="111"/>
+      <c r="N128" s="111"/>
+      <c r="O128" s="111"/>
+    </row>
+    <row r="129" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="42"/>
+      <c r="C129" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="100"/>
+      <c r="E129" s="100"/>
+      <c r="F129" s="100"/>
+      <c r="G129" s="100"/>
+      <c r="H129" s="100"/>
+      <c r="I129" s="100"/>
+      <c r="J129" s="100"/>
+      <c r="K129" s="30">
+        <v>195.96</v>
+      </c>
+      <c r="L129" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="M129" s="111"/>
+      <c r="N129" s="111"/>
+      <c r="O129" s="111"/>
+    </row>
+    <row r="130" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="42"/>
+      <c r="C130" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130" s="100"/>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100"/>
+      <c r="G130" s="100"/>
+      <c r="H130" s="100"/>
+      <c r="I130" s="100"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="30">
+        <v>196.96</v>
+      </c>
+      <c r="L130" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
+      <c r="O130" s="111"/>
+    </row>
+    <row r="133" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" s="119"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="G133" s="113"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="114"/>
+    </row>
+    <row r="134" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" s="118"/>
+      <c r="E134" s="118"/>
+      <c r="F134" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="G134" s="113"/>
+      <c r="H134" s="113"/>
+      <c r="I134" s="114"/>
+    </row>
+    <row r="135" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" s="118"/>
+      <c r="E135" s="118"/>
+      <c r="F135" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="G135" s="113"/>
+      <c r="H135" s="113"/>
+      <c r="I135" s="114"/>
+    </row>
+    <row r="136" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" s="113"/>
+      <c r="E136" s="114"/>
+      <c r="F136" s="112" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="42"/>
-      <c r="C126" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="D126" s="99"/>
-      <c r="E126" s="99"/>
-      <c r="F126" s="99"/>
-      <c r="G126" s="99"/>
-      <c r="H126" s="99"/>
-      <c r="I126" s="99"/>
-      <c r="J126" s="99"/>
-      <c r="K126" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="L126" s="100"/>
-    </row>
-    <row r="127" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="42"/>
-      <c r="C127" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="D127" s="99"/>
-      <c r="E127" s="99"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="99"/>
-      <c r="H127" s="99"/>
-      <c r="I127" s="99"/>
-      <c r="J127" s="99"/>
-      <c r="K127" s="100">
-        <v>191.96</v>
-      </c>
-      <c r="L127" s="100"/>
-    </row>
-    <row r="128" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="42"/>
-      <c r="C128" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="D128" s="99"/>
-      <c r="E128" s="99"/>
-      <c r="F128" s="99"/>
-      <c r="G128" s="99"/>
-      <c r="H128" s="99"/>
-      <c r="I128" s="99"/>
-      <c r="J128" s="99"/>
-      <c r="K128" s="100">
-        <v>194.96</v>
-      </c>
-      <c r="L128" s="100"/>
-    </row>
-    <row r="129" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="42"/>
-      <c r="C129" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="D129" s="99"/>
-      <c r="E129" s="99"/>
-      <c r="F129" s="99"/>
-      <c r="G129" s="99"/>
-      <c r="H129" s="99"/>
-      <c r="I129" s="99"/>
-      <c r="J129" s="99"/>
-      <c r="K129" s="100">
-        <v>195.96</v>
-      </c>
-      <c r="L129" s="100"/>
-    </row>
-    <row r="130" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="42"/>
-      <c r="C130" s="99" t="s">
+      <c r="G136" s="113"/>
+      <c r="H136" s="113"/>
+      <c r="I136" s="114"/>
+    </row>
+    <row r="137" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" s="113"/>
+      <c r="E137" s="114"/>
+      <c r="F137" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" s="113"/>
+      <c r="H137" s="113"/>
+      <c r="I137" s="114"/>
+    </row>
+    <row r="138" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="113"/>
+      <c r="E138" s="114"/>
+      <c r="F138" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="D130" s="99"/>
-      <c r="E130" s="99"/>
-      <c r="F130" s="99"/>
-      <c r="G130" s="99"/>
-      <c r="H130" s="99"/>
-      <c r="I130" s="99"/>
-      <c r="J130" s="99"/>
-      <c r="K130" s="100">
-        <v>196.96</v>
-      </c>
-      <c r="L130" s="100"/>
-    </row>
-    <row r="131" spans="1:12" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="42"/>
-      <c r="C131" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="D131" s="99"/>
-      <c r="E131" s="99"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="99"/>
-      <c r="H131" s="99"/>
-      <c r="I131" s="99"/>
-      <c r="J131" s="99"/>
-      <c r="K131" s="100" t="str">
-        <f>"081.96"</f>
-        <v>081.96</v>
-      </c>
-      <c r="L131" s="100"/>
-    </row>
-    <row r="134" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C134" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="D134" s="117"/>
-      <c r="E134" s="117"/>
-      <c r="F134" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="G134" s="111"/>
-      <c r="H134" s="111"/>
-      <c r="I134" s="112"/>
-    </row>
-    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C135" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="D135" s="116"/>
-      <c r="E135" s="116"/>
-      <c r="F135" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="G135" s="111"/>
-      <c r="H135" s="111"/>
-      <c r="I135" s="112"/>
-    </row>
-    <row r="136" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C136" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="D136" s="116"/>
-      <c r="E136" s="116"/>
-      <c r="F136" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="G136" s="111"/>
-      <c r="H136" s="111"/>
-      <c r="I136" s="112"/>
-    </row>
-    <row r="137" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C137" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="D137" s="111"/>
-      <c r="E137" s="112"/>
-      <c r="F137" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="G137" s="111"/>
-      <c r="H137" s="111"/>
-      <c r="I137" s="112"/>
-    </row>
-    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C138" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="D138" s="111"/>
-      <c r="E138" s="112"/>
-      <c r="F138" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="G138" s="111"/>
-      <c r="H138" s="111"/>
-      <c r="I138" s="112"/>
-    </row>
-    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C139" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="D139" s="111"/>
-      <c r="E139" s="112"/>
-      <c r="F139" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="G139" s="111"/>
-      <c r="H139" s="111"/>
-      <c r="I139" s="112"/>
-    </row>
-    <row r="140" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C140" s="110" t="s">
+      <c r="G138" s="113"/>
+      <c r="H138" s="113"/>
+      <c r="I138" s="114"/>
+    </row>
+    <row r="139" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D140" s="111"/>
-      <c r="E140" s="112"/>
-      <c r="F140" s="110" t="s">
-        <v>159</v>
-      </c>
-      <c r="G140" s="111"/>
-      <c r="H140" s="111"/>
-      <c r="I140" s="112"/>
-    </row>
-    <row r="141" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C141" s="110" t="s">
+      <c r="D139" s="113"/>
+      <c r="E139" s="114"/>
+      <c r="F139" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="G139" s="113"/>
+      <c r="H139" s="113"/>
+      <c r="I139" s="114"/>
+    </row>
+    <row r="140" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="D141" s="111"/>
-      <c r="E141" s="112"/>
-      <c r="F141" s="113">
+      <c r="D140" s="113"/>
+      <c r="E140" s="114"/>
+      <c r="F140" s="115">
         <v>20240716</v>
       </c>
-      <c r="G141" s="114"/>
-      <c r="H141" s="114"/>
-      <c r="I141" s="115"/>
+      <c r="G140" s="116"/>
+      <c r="H140" s="116"/>
+      <c r="I140" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="100">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B50:O50"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -12054,17 +12087,6 @@
     <mergeCell ref="O2:R10"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B50:O50"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="B82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
     <mergeCell ref="T80:U80"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="L53:M53"/>
@@ -12077,6 +12099,13 @@
     <mergeCell ref="B80:O80"/>
     <mergeCell ref="P80:Q80"/>
     <mergeCell ref="R80:S80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="B82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
     <mergeCell ref="B86:O86"/>
     <mergeCell ref="B85:O85"/>
     <mergeCell ref="P83:Q83"/>
@@ -12086,49 +12115,47 @@
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="R84:S84"/>
     <mergeCell ref="T84:U84"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="T88:U88"/>
     <mergeCell ref="P85:Q85"/>
     <mergeCell ref="R85:S85"/>
     <mergeCell ref="T85:U85"/>
     <mergeCell ref="P86:Q86"/>
     <mergeCell ref="R86:S86"/>
     <mergeCell ref="T86:U86"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F135:I135"/>
     <mergeCell ref="C136:E136"/>
     <mergeCell ref="F136:I136"/>
     <mergeCell ref="C137:E137"/>
     <mergeCell ref="F137:I137"/>
     <mergeCell ref="C138:E138"/>
     <mergeCell ref="F138:I138"/>
-    <mergeCell ref="K130:L130"/>
     <mergeCell ref="C139:E139"/>
     <mergeCell ref="F139:I139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="C131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="F135:I135"/>
     <mergeCell ref="C128:J128"/>
-    <mergeCell ref="K128:L128"/>
     <mergeCell ref="C129:J129"/>
-    <mergeCell ref="K129:L129"/>
     <mergeCell ref="C130:J130"/>
     <mergeCell ref="G104:G106"/>
     <mergeCell ref="B109:O109"/>
     <mergeCell ref="B111:O111"/>
     <mergeCell ref="C126:J126"/>
-    <mergeCell ref="K126:L126"/>
     <mergeCell ref="C127:J127"/>
-    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="L128:O128"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="L130:O130"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:N33">
     <cfRule type="cellIs" dxfId="23" priority="64" operator="equal">
@@ -12229,13 +12256,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12249,13 +12276,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>101</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>103</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12273,13 +12300,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>93</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12301,7 +12328,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12317,13 +12344,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12337,15 +12364,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12361,13 +12388,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12383,13 +12410,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12403,15 +12430,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>298450</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12427,13 +12454,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12449,13 +12476,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12471,13 +12498,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12493,13 +12520,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12515,13 +12542,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12537,13 +12564,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12559,13 +12586,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12581,13 +12608,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12603,13 +12630,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12625,13 +12652,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12647,13 +12674,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12669,13 +12696,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12691,13 +12718,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>107950</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12801,13 +12828,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12821,13 +12848,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>108</xdr:row>
-                    <xdr:rowOff>317500</xdr:rowOff>
+                    <xdr:rowOff>314325</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>110</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12843,9 +12870,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -12865,9 +12892,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -12893,9 +12920,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>123</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12917,7 +12944,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
